--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\02_Personal\02_TMC\研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36C3F51-D82F-4BF9-A380-8C66201A716D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3739A1-8702-443D-9B18-A88760F67F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2438" yWindow="525" windowWidth="26100" windowHeight="14745" activeTab="4" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="22733" windowHeight="12653" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="303">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -734,135 +734,6 @@
     <t>2004/05/13</t>
   </si>
   <si>
-    <t>身長・体重データのレコード数（COUNT）</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>身長・体重の合計値（SUM）</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ゴウケイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>身長・体重の平均値（/）</t>
-    <rPh sb="0" eb="2">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ヘイキンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上記をひとつの式で表す（SUM / COUNT）</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アラワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上記をひとつの式で表す（AVERAGE）</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>シキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アラワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性のみの身長・体重の平均値（SUMIF / COUNTIF）</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ヘイキンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性のみの身長・体重の平均値（SUMIF / COUNTIF）</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ヘイキンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性のみの身長・体重の平均値（AVERAGEIF）</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ヘイキンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性のみの身長・体重の平均値（AVERAGEIF）</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シンチョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイジュウ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ヘイキンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ABC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1546,6 +1417,301 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このデータのレコード数を関数を使って算出しましょう</t>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レコード数：</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COUNT関数を使用することができそうです</t>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長・体重それぞれの合計値を関数を使って算出しましょう</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長の合計値：</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重の合計値：</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUM関数を使用することができそうです</t>
+    <rPh sb="3" eb="5">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習１と演習２の結果を使って、身長・体重それぞれの平均値を算出しましょう</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身長の平均値：</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体重の平均値：</t>
+    <rPh sb="0" eb="2">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習１と演習２の結果を参照せずに、ひとつの式で平均値を算出するように数式を変更しましょう</t>
+    <rPh sb="11" eb="13">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>スウシキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習5：</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の関数を使って、身長・体重それぞれの平均値を算出しましょう</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習6：</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AVERAGE関数について調べてみてください</t>
+    <rPh sb="7" eb="9">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SUMIF関数、COUNTIF関数について調べてみてください</t>
+    <rPh sb="5" eb="7">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性の身長の平均値：</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性の体重の平均値：</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性のみの身長・体重の平均値を関数を使って算出しましょう</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習7：</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性のみの身長・体重の平均値をSUMIF関数、COUNTIF関数を使わずに算出しましょう</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンチョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>タイジュウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AVERAGEIF関数について調べてみてください</t>
+    <rPh sb="9" eb="11">
+      <t>カンスウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1862,6 +2028,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1872,9 +2041,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1892,6 +2058,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066FF"/>
       <color rgb="FFCCFFFF"/>
     </mruColors>
   </colors>
@@ -1907,6 +2074,256 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>705850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFD8103-CA21-4A1D-B9B6-ADB3C2907D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728663" y="3471862"/>
+          <a:ext cx="372475" cy="346075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>701088</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1ED149-DA1C-430A-83D3-D1FBD50BC781}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723901" y="5057775"/>
+          <a:ext cx="372475" cy="346075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>710613</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{239206C9-EFC0-42F0-A526-8B214AB4936D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733426" y="8848725"/>
+          <a:ext cx="372475" cy="346075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>710613</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>17462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{800BF9F2-6F25-3199-3EC5-5A06A8BC1919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733426" y="9744075"/>
+          <a:ext cx="372475" cy="346075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>338138</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="372475" cy="346075"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C010FB-3B37-4BD2-AE9B-C3B5D7E8F2C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733426" y="9744075"/>
+          <a:ext cx="372475" cy="346075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2061,7 +2478,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -2500,7 +2917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795CA75-2E57-4007-A1E6-AF0752BF2C5D}">
   <dimension ref="B2:B18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -2510,47 +2927,47 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B2" s="21" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B4" s="21" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B6" s="21" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B8" s="21" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B10" s="21" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B12" s="21" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B14" s="21" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B16" s="21" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.7">
       <c r="B18" s="21" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2562,7 +2979,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574642DF-B6FC-47D7-8F4E-74F8116D6D0D}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2574,7 +2991,7 @@
     <col min="7" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2600,7 +3017,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2626,7 +3043,7 @@
         <v>94.900001525878906</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2652,7 +3069,7 @@
         <v>49.900001525878906</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2678,7 +3095,7 @@
         <v>92.400001525878906</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2704,7 +3121,7 @@
         <v>58.200000762939453</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2730,7 +3147,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2756,7 +3173,7 @@
         <v>65.800003051757813</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2782,7 +3199,7 @@
         <v>50.900001525878906</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2808,7 +3225,7 @@
         <v>73.400001525878906</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2834,7 +3251,7 @@
         <v>64.199996948242188</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2860,72 +3277,183 @@
         <v>56.400001525878906</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.7">
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.7">
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.7">
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.7">
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.7">
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" t="s">
-        <v>220</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B13" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D15" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D16" s="22"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="C17" s="23" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B19" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D21" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D22" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="C24" s="23" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B26" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D28" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D29" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B31" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D33" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D34" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B36" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D38" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D39" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D40" s="22"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="C41" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B43" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="C45" s="23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D47" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D48" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B50" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="C52" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D54" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D55" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="E55" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8230,7 +8758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF40B12B-B164-4AE3-9718-934BEE588E88}">
   <dimension ref="B3:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
@@ -8271,7 +8799,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D5" s="10" t="e">
         <f>B5+C5</f>
@@ -8292,7 +8820,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.7">
       <c r="E7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8844,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="22.9" x14ac:dyDescent="0.7">
       <c r="A1" s="12" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.7">
@@ -8329,15 +8857,15 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.7">
       <c r="A5" s="31" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C5" s="15">
         <f>DATE($A$2,$B$2,1)</f>
@@ -8468,97 +8996,97 @@
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="17" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="V6" s="18" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="X6" s="17" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="Y6" s="17" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="AB6" s="18" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AC6" s="18" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AD6" s="17" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AE6" s="17" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="AF6" s="17" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="AG6" s="17" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.7">
@@ -8983,123 +9511,123 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.7">
       <c r="B20" s="21" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.7">
       <c r="C21" s="21" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.7">
       <c r="C22" s="21"/>
       <c r="D22" s="21" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.7">
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.7">
       <c r="D25" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.7">
       <c r="D26" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.7">
       <c r="D27" s="22"/>
       <c r="E27" s="23" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.7">
       <c r="D28" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.7">
       <c r="D29" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.7">
       <c r="C31" s="21" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.7">
       <c r="C32" s="21"/>
       <c r="D32" s="24" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.7">
       <c r="C33" s="21"/>
       <c r="D33" s="24" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D35" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D36" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="23" t="s">
         <v>239</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D37" s="22"/>
       <c r="E37" s="23" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D38" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E38" s="23" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.7">
       <c r="C40" s="21" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D40" s="21"/>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.7">
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.7">
@@ -9108,22 +9636,22 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.7">
       <c r="C43" s="21" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="D43" s="21"/>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.7">
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D46" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E46" s="23" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -9151,7 +9679,7 @@
   <sheetData>
     <row r="1" spans="1:64" ht="22.9" x14ac:dyDescent="0.7">
       <c r="A1" s="12" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:64" x14ac:dyDescent="0.7">
@@ -9164,457 +9692,457 @@
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.7">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.7">
       <c r="A5" s="31" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="C5" s="33">
+        <v>216</v>
+      </c>
+      <c r="C5" s="34">
         <v>1</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33">
+      <c r="D5" s="35"/>
+      <c r="E5" s="34">
         <v>2</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="33">
+      <c r="F5" s="35"/>
+      <c r="G5" s="34">
         <v>3</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33">
+      <c r="H5" s="35"/>
+      <c r="I5" s="34">
         <v>4</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35">
+      <c r="J5" s="35"/>
+      <c r="K5" s="36">
         <v>5</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="35">
+      <c r="L5" s="37"/>
+      <c r="M5" s="36">
         <v>6</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="33">
+      <c r="N5" s="37"/>
+      <c r="O5" s="34">
         <v>7</v>
       </c>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="33">
+      <c r="P5" s="35"/>
+      <c r="Q5" s="34">
         <v>8</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="33">
+      <c r="R5" s="35"/>
+      <c r="S5" s="34">
         <v>9</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="33">
+      <c r="T5" s="35"/>
+      <c r="U5" s="34">
         <v>10</v>
       </c>
-      <c r="V5" s="34"/>
-      <c r="W5" s="33">
+      <c r="V5" s="35"/>
+      <c r="W5" s="34">
         <v>11</v>
       </c>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35">
+      <c r="X5" s="35"/>
+      <c r="Y5" s="36">
         <v>12</v>
       </c>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="35">
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="36">
         <v>13</v>
       </c>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="33">
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="34">
         <v>14</v>
       </c>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="33">
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="34">
         <v>15</v>
       </c>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="33">
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="34">
         <v>16</v>
       </c>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="33">
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="34">
         <v>17</v>
       </c>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="33">
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="34">
         <v>18</v>
       </c>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="35">
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="36">
         <v>19</v>
       </c>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="35">
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="36">
         <v>20</v>
       </c>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="33">
+      <c r="AP5" s="37"/>
+      <c r="AQ5" s="34">
         <v>21</v>
       </c>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="33">
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="34">
         <v>22</v>
       </c>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="33">
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="34">
         <v>23</v>
       </c>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="33">
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="34">
         <v>24</v>
       </c>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="33">
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="34">
         <v>25</v>
       </c>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="35">
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="36">
         <v>26</v>
       </c>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="35">
+      <c r="BB5" s="37"/>
+      <c r="BC5" s="36">
         <v>27</v>
       </c>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="33">
+      <c r="BD5" s="37"/>
+      <c r="BE5" s="34">
         <v>28</v>
       </c>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="33">
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="34">
         <v>29</v>
       </c>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="33">
+      <c r="BH5" s="35"/>
+      <c r="BI5" s="34">
         <v>30</v>
       </c>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="33">
+      <c r="BJ5" s="35"/>
+      <c r="BK5" s="34">
         <v>31</v>
       </c>
-      <c r="BL5" s="34"/>
+      <c r="BL5" s="35"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.7">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="V6" s="34"/>
-      <c r="W6" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="BJ6" s="34"/>
-      <c r="BK6" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="BL6" s="34"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="35"/>
+      <c r="I6" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="L6" s="37"/>
+      <c r="M6" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="N6" s="37"/>
+      <c r="O6" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="R6" s="35"/>
+      <c r="S6" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="T6" s="35"/>
+      <c r="U6" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="V6" s="35"/>
+      <c r="W6" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AJ6" s="35"/>
+      <c r="AK6" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="AP6" s="37"/>
+      <c r="AQ6" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="AZ6" s="35"/>
+      <c r="BA6" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="BB6" s="37"/>
+      <c r="BC6" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="BD6" s="37"/>
+      <c r="BE6" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="BF6" s="35"/>
+      <c r="BG6" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH6" s="35"/>
+      <c r="BI6" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="BJ6" s="35"/>
+      <c r="BK6" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="BL6" s="35"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.7">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="X7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Y7" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="Z7" s="18" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AA7" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AB7" s="18" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AC7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AD7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AE7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AF7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AG7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AH7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AI7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AJ7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AK7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AL7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AM7" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AN7" s="18" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AO7" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AP7" s="18" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AQ7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AR7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AS7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AT7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AU7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AV7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AW7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AX7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AY7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AZ7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="BA7" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="BB7" s="18" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="BC7" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="BD7" s="18" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="BE7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="BF7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="BG7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="BH7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="BI7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="BJ7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="BK7" s="17" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="BL7" s="17" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.7">
@@ -10345,119 +10873,104 @@
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.7">
       <c r="B20" s="21" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:64" x14ac:dyDescent="0.7">
       <c r="C21" s="21" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.7">
       <c r="D22" s="21" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:64" x14ac:dyDescent="0.7">
       <c r="D24" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:64" x14ac:dyDescent="0.7">
       <c r="C26" s="21" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:64" x14ac:dyDescent="0.7">
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:64" x14ac:dyDescent="0.7">
       <c r="D29" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:64" x14ac:dyDescent="0.7">
       <c r="C31" s="21" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D31" s="21"/>
     </row>
     <row r="32" spans="1:64" x14ac:dyDescent="0.7">
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.7">
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.7">
       <c r="D35" s="22" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.7">
       <c r="E36" s="23" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AU6:AV6"/>
-    <mergeCell ref="AW6:AX6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AW5:AX5"/>
     <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="AU5:AV5"/>
     <mergeCell ref="Y5:Z5"/>
     <mergeCell ref="AA5:AB5"/>
@@ -10469,20 +10982,35 @@
     <mergeCell ref="AM5:AN5"/>
     <mergeCell ref="AO5:AP5"/>
     <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AU6:AV6"/>
+    <mergeCell ref="AW6:AX6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="Y6:Z6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10509,13 +11037,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A1" s="25" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
@@ -10523,10 +11051,10 @@
         <v>45383</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E2" s="30"/>
     </row>
@@ -10535,10 +11063,10 @@
         <v>45384</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.7">
@@ -10546,10 +11074,10 @@
         <v>45385</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.7">
@@ -10557,10 +11085,10 @@
         <v>45386</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.7">
@@ -10568,10 +11096,10 @@
         <v>45387</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.7">
@@ -10579,10 +11107,10 @@
         <v>45388</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.7">
@@ -10590,10 +11118,10 @@
         <v>45389</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.7">
@@ -10601,10 +11129,10 @@
         <v>45390</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.7">
@@ -10612,10 +11140,10 @@
         <v>45391</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.7">
@@ -10623,10 +11151,10 @@
         <v>45392</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.7">
@@ -10634,10 +11162,10 @@
         <v>45393</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.7">
@@ -10645,10 +11173,10 @@
         <v>45394</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.7">
@@ -10656,10 +11184,10 @@
         <v>45395</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.7">
@@ -10667,10 +11195,10 @@
         <v>45396</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.7">
@@ -10678,10 +11206,10 @@
         <v>45397</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.7">
@@ -10689,10 +11217,10 @@
         <v>45398</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.7">
@@ -10700,10 +11228,10 @@
         <v>45399</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.7">
@@ -10711,10 +11239,10 @@
         <v>45400</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.7">
@@ -10722,10 +11250,10 @@
         <v>45401</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.7">
@@ -10733,10 +11261,10 @@
         <v>45402</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.7">
@@ -10744,10 +11272,10 @@
         <v>45403</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.7">
@@ -10755,10 +11283,10 @@
         <v>45404</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.7">
@@ -10766,10 +11294,10 @@
         <v>45405</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C24" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.7">
@@ -10777,10 +11305,10 @@
         <v>45406</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.7">
@@ -10788,10 +11316,10 @@
         <v>45407</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.7">
@@ -10799,10 +11327,10 @@
         <v>45408</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.7">
@@ -10810,10 +11338,10 @@
         <v>45409</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.7">
@@ -10821,10 +11349,10 @@
         <v>45410</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.7">
@@ -10832,10 +11360,10 @@
         <v>45411</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.7">
@@ -10843,10 +11371,10 @@
         <v>45412</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.7">
@@ -10854,10 +11382,10 @@
         <v>45413</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.7">
@@ -10865,10 +11393,10 @@
         <v>45414</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.7">
@@ -10876,10 +11404,10 @@
         <v>45415</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.7">
@@ -10887,10 +11415,10 @@
         <v>45416</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.7">
@@ -10898,10 +11426,10 @@
         <v>45417</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.7">
@@ -10909,10 +11437,10 @@
         <v>45418</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.7">
@@ -10920,10 +11448,10 @@
         <v>45419</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.7">
@@ -10931,10 +11459,10 @@
         <v>45420</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C39" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.7">
@@ -10942,10 +11470,10 @@
         <v>45421</v>
       </c>
       <c r="B40" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C40" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.7">
@@ -10953,10 +11481,10 @@
         <v>45422</v>
       </c>
       <c r="B41" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C41" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.7">
@@ -10964,10 +11492,10 @@
         <v>45423</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C42" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.7">
@@ -10975,10 +11503,10 @@
         <v>45424</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.7">
@@ -10986,10 +11514,10 @@
         <v>45425</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.7">
@@ -10997,10 +11525,10 @@
         <v>45426</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.7">
@@ -11008,10 +11536,10 @@
         <v>45427</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C46" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.7">
@@ -11019,10 +11547,10 @@
         <v>45428</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.7">
@@ -11030,10 +11558,10 @@
         <v>45429</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.7">
@@ -11041,10 +11569,10 @@
         <v>45430</v>
       </c>
       <c r="B49" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.7">
@@ -11052,10 +11580,10 @@
         <v>45431</v>
       </c>
       <c r="B50" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.7">
@@ -11063,10 +11591,10 @@
         <v>45432</v>
       </c>
       <c r="B51" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C51" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.7">
@@ -11074,10 +11602,10 @@
         <v>45433</v>
       </c>
       <c r="B52" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.7">
@@ -11085,10 +11613,10 @@
         <v>45434</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C53" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.7">
@@ -11096,10 +11624,10 @@
         <v>45435</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.7">
@@ -11107,10 +11635,10 @@
         <v>45436</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.7">
@@ -11118,10 +11646,10 @@
         <v>45437</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C56" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.7">
@@ -11129,10 +11657,10 @@
         <v>45438</v>
       </c>
       <c r="B57" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C57" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.7">
@@ -11140,10 +11668,10 @@
         <v>45439</v>
       </c>
       <c r="B58" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C58" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.7">
@@ -11151,10 +11679,10 @@
         <v>45440</v>
       </c>
       <c r="B59" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C59" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.7">
@@ -11162,10 +11690,10 @@
         <v>45441</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.7">
@@ -11173,10 +11701,10 @@
         <v>45442</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C61" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.7">
@@ -11184,10 +11712,10 @@
         <v>45443</v>
       </c>
       <c r="B62" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.7">
@@ -11195,10 +11723,10 @@
         <v>45444</v>
       </c>
       <c r="B63" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.7">
@@ -11206,10 +11734,10 @@
         <v>45445</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C64" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.7">
@@ -11217,10 +11745,10 @@
         <v>45446</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C65" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.7">
@@ -11228,10 +11756,10 @@
         <v>45447</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C66" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.7">
@@ -11239,10 +11767,10 @@
         <v>45448</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C67" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.7">
@@ -11250,10 +11778,10 @@
         <v>45449</v>
       </c>
       <c r="B68" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C68" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.7">
@@ -11261,10 +11789,10 @@
         <v>45450</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C69" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.7">
@@ -11272,10 +11800,10 @@
         <v>45451</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.7">
@@ -11283,10 +11811,10 @@
         <v>45452</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C71" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.7">
@@ -11294,10 +11822,10 @@
         <v>45453</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C72" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.7">
@@ -11305,10 +11833,10 @@
         <v>45454</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.7">
@@ -11316,10 +11844,10 @@
         <v>45455</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.7">
@@ -11327,10 +11855,10 @@
         <v>45456</v>
       </c>
       <c r="B75" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C75" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.7">
@@ -11338,10 +11866,10 @@
         <v>45457</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C76" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.7">
@@ -11349,10 +11877,10 @@
         <v>45458</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C77" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.7">
@@ -11360,10 +11888,10 @@
         <v>45459</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C78" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.7">
@@ -11371,10 +11899,10 @@
         <v>45460</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C79" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.7">
@@ -11382,10 +11910,10 @@
         <v>45461</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C80" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.7">
@@ -11393,10 +11921,10 @@
         <v>45462</v>
       </c>
       <c r="B81" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C81" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.7">
@@ -11404,10 +11932,10 @@
         <v>45463</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C82" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.7">
@@ -11415,10 +11943,10 @@
         <v>45464</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C83" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.7">
@@ -11426,10 +11954,10 @@
         <v>45465</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.7">
@@ -11437,10 +11965,10 @@
         <v>45466</v>
       </c>
       <c r="B85" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C85" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.7">
@@ -11448,10 +11976,10 @@
         <v>45467</v>
       </c>
       <c r="B86" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C86" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.7">
@@ -11459,10 +11987,10 @@
         <v>45468</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C87" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.7">
@@ -11470,10 +11998,10 @@
         <v>45469</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C88" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.7">
@@ -11481,10 +12009,10 @@
         <v>45470</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C89" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.7">
@@ -11492,10 +12020,10 @@
         <v>45471</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C90" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.7">
@@ -11503,10 +12031,10 @@
         <v>45472</v>
       </c>
       <c r="B91" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C91" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.7">
@@ -11514,10 +12042,10 @@
         <v>45473</v>
       </c>
       <c r="B92" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C92" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.7">
@@ -11525,10 +12053,10 @@
         <v>45474</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C93" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.7">
@@ -11536,10 +12064,10 @@
         <v>45475</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C94" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.7">
@@ -11547,10 +12075,10 @@
         <v>45476</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C95" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.7">
@@ -11558,10 +12086,10 @@
         <v>45477</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C96" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.7">
@@ -11569,10 +12097,10 @@
         <v>45478</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C97" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.7">
@@ -11580,10 +12108,10 @@
         <v>45479</v>
       </c>
       <c r="B98" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C98" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.7">
@@ -11591,10 +12119,10 @@
         <v>45480</v>
       </c>
       <c r="B99" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C99" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.7">
@@ -11602,10 +12130,10 @@
         <v>45481</v>
       </c>
       <c r="B100" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C100" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.7">
@@ -11613,10 +12141,10 @@
         <v>45482</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C101" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.7">
@@ -11624,10 +12152,10 @@
         <v>45483</v>
       </c>
       <c r="B102" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C102" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.7">
@@ -11635,10 +12163,10 @@
         <v>45484</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.7">
@@ -11646,10 +12174,10 @@
         <v>45485</v>
       </c>
       <c r="B104" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C104" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.7">
@@ -11657,10 +12185,10 @@
         <v>45486</v>
       </c>
       <c r="B105" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C105" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.7">
@@ -11668,10 +12196,10 @@
         <v>45487</v>
       </c>
       <c r="B106" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C106" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.7">
@@ -11679,10 +12207,10 @@
         <v>45488</v>
       </c>
       <c r="B107" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C107" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.7">
@@ -11690,10 +12218,10 @@
         <v>45489</v>
       </c>
       <c r="B108" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C108" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.7">
@@ -11701,10 +12229,10 @@
         <v>45490</v>
       </c>
       <c r="B109" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C109" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.7">
@@ -11712,10 +12240,10 @@
         <v>45491</v>
       </c>
       <c r="B110" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C110" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.7">
@@ -11723,10 +12251,10 @@
         <v>45492</v>
       </c>
       <c r="B111" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C111" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.7">
@@ -11734,10 +12262,10 @@
         <v>45493</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C112" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.7">
@@ -11745,10 +12273,10 @@
         <v>45494</v>
       </c>
       <c r="B113" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C113" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.7">
@@ -11756,10 +12284,10 @@
         <v>45495</v>
       </c>
       <c r="B114" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C114" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.7">
@@ -11767,10 +12295,10 @@
         <v>45496</v>
       </c>
       <c r="B115" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C115" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.7">
@@ -11778,10 +12306,10 @@
         <v>45497</v>
       </c>
       <c r="B116" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C116" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.7">
@@ -11789,10 +12317,10 @@
         <v>45498</v>
       </c>
       <c r="B117" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C117" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.7">
@@ -11800,10 +12328,10 @@
         <v>45499</v>
       </c>
       <c r="B118" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.7">
@@ -11811,10 +12339,10 @@
         <v>45500</v>
       </c>
       <c r="B119" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C119" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.7">
@@ -11822,10 +12350,10 @@
         <v>45501</v>
       </c>
       <c r="B120" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C120" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.7">
@@ -11833,10 +12361,10 @@
         <v>45502</v>
       </c>
       <c r="B121" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C121" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.7">
@@ -11844,10 +12372,10 @@
         <v>45503</v>
       </c>
       <c r="B122" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C122" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.7">
@@ -11855,10 +12383,10 @@
         <v>45504</v>
       </c>
       <c r="B123" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C123" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.7">
@@ -11866,10 +12394,10 @@
         <v>45505</v>
       </c>
       <c r="B124" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C124" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.7">
@@ -11877,10 +12405,10 @@
         <v>45506</v>
       </c>
       <c r="B125" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C125" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.7">
@@ -11888,10 +12416,10 @@
         <v>45507</v>
       </c>
       <c r="B126" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C126" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.7">
@@ -11899,10 +12427,10 @@
         <v>45508</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C127" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.7">
@@ -11910,10 +12438,10 @@
         <v>45509</v>
       </c>
       <c r="B128" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C128" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.7">
@@ -11921,10 +12449,10 @@
         <v>45510</v>
       </c>
       <c r="B129" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C129" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.7">
@@ -11932,10 +12460,10 @@
         <v>45511</v>
       </c>
       <c r="B130" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C130" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.7">
@@ -11943,10 +12471,10 @@
         <v>45512</v>
       </c>
       <c r="B131" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C131" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.7">
@@ -11954,10 +12482,10 @@
         <v>45513</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C132" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.7">
@@ -11965,10 +12493,10 @@
         <v>45514</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C133" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.7">
@@ -11976,10 +12504,10 @@
         <v>45515</v>
       </c>
       <c r="B134" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C134" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.7">
@@ -11987,10 +12515,10 @@
         <v>45516</v>
       </c>
       <c r="B135" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C135" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.7">
@@ -11998,10 +12526,10 @@
         <v>45517</v>
       </c>
       <c r="B136" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C136" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.7">
@@ -12009,10 +12537,10 @@
         <v>45518</v>
       </c>
       <c r="B137" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C137" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.7">
@@ -12020,10 +12548,10 @@
         <v>45519</v>
       </c>
       <c r="B138" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C138" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.7">
@@ -12031,10 +12559,10 @@
         <v>45520</v>
       </c>
       <c r="B139" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C139" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.7">
@@ -12042,10 +12570,10 @@
         <v>45521</v>
       </c>
       <c r="B140" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C140" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.7">
@@ -12053,10 +12581,10 @@
         <v>45522</v>
       </c>
       <c r="B141" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C141" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.7">
@@ -12064,10 +12592,10 @@
         <v>45523</v>
       </c>
       <c r="B142" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C142" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.7">
@@ -12075,10 +12603,10 @@
         <v>45524</v>
       </c>
       <c r="B143" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C143" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.7">
@@ -12086,10 +12614,10 @@
         <v>45525</v>
       </c>
       <c r="B144" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C144" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.7">
@@ -12097,10 +12625,10 @@
         <v>45526</v>
       </c>
       <c r="B145" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C145" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.7">
@@ -12108,10 +12636,10 @@
         <v>45527</v>
       </c>
       <c r="B146" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C146" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.7">
@@ -12119,10 +12647,10 @@
         <v>45528</v>
       </c>
       <c r="B147" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C147" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.7">
@@ -12130,10 +12658,10 @@
         <v>45529</v>
       </c>
       <c r="B148" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C148" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.7">
@@ -12141,10 +12669,10 @@
         <v>45530</v>
       </c>
       <c r="B149" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C149" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.7">
@@ -12152,10 +12680,10 @@
         <v>45531</v>
       </c>
       <c r="B150" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C150" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.7">
@@ -12163,10 +12691,10 @@
         <v>45532</v>
       </c>
       <c r="B151" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C151" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.7">
@@ -12174,10 +12702,10 @@
         <v>45533</v>
       </c>
       <c r="B152" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C152" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.7">
@@ -12185,10 +12713,10 @@
         <v>45534</v>
       </c>
       <c r="B153" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C153" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.7">
@@ -12196,10 +12724,10 @@
         <v>45535</v>
       </c>
       <c r="B154" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C154" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.7">
@@ -12207,10 +12735,10 @@
         <v>45536</v>
       </c>
       <c r="B155" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C155" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.7">
@@ -12218,10 +12746,10 @@
         <v>45537</v>
       </c>
       <c r="B156" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C156" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.7">
@@ -12229,10 +12757,10 @@
         <v>45538</v>
       </c>
       <c r="B157" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C157" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.7">
@@ -12240,10 +12768,10 @@
         <v>45539</v>
       </c>
       <c r="B158" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C158" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.7">
@@ -12251,10 +12779,10 @@
         <v>45540</v>
       </c>
       <c r="B159" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C159" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.7">
@@ -12262,10 +12790,10 @@
         <v>45541</v>
       </c>
       <c r="B160" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C160" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.7">
@@ -12273,10 +12801,10 @@
         <v>45542</v>
       </c>
       <c r="B161" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C161" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.7">
@@ -12284,10 +12812,10 @@
         <v>45543</v>
       </c>
       <c r="B162" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C162" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.7">
@@ -12295,10 +12823,10 @@
         <v>45544</v>
       </c>
       <c r="B163" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C163" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.7">
@@ -12306,10 +12834,10 @@
         <v>45545</v>
       </c>
       <c r="B164" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C164" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.7">
@@ -12317,10 +12845,10 @@
         <v>45546</v>
       </c>
       <c r="B165" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C165" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.7">
@@ -12328,10 +12856,10 @@
         <v>45547</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C166" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.7">
@@ -12339,10 +12867,10 @@
         <v>45548</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C167" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.7">
@@ -12350,10 +12878,10 @@
         <v>45549</v>
       </c>
       <c r="B168" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C168" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.7">
@@ -12361,10 +12889,10 @@
         <v>45550</v>
       </c>
       <c r="B169" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C169" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.7">
@@ -12372,10 +12900,10 @@
         <v>45551</v>
       </c>
       <c r="B170" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C170" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.7">
@@ -12383,10 +12911,10 @@
         <v>45552</v>
       </c>
       <c r="B171" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C171" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.7">
@@ -12394,10 +12922,10 @@
         <v>45553</v>
       </c>
       <c r="B172" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C172" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.7">
@@ -12405,10 +12933,10 @@
         <v>45554</v>
       </c>
       <c r="B173" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C173" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.7">
@@ -12416,10 +12944,10 @@
         <v>45555</v>
       </c>
       <c r="B174" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C174" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.7">
@@ -12427,10 +12955,10 @@
         <v>45556</v>
       </c>
       <c r="B175" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C175" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.7">
@@ -12438,10 +12966,10 @@
         <v>45557</v>
       </c>
       <c r="B176" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C176" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.7">
@@ -12449,10 +12977,10 @@
         <v>45558</v>
       </c>
       <c r="B177" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C177" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.7">
@@ -12460,10 +12988,10 @@
         <v>45559</v>
       </c>
       <c r="B178" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C178" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.7">
@@ -12471,10 +12999,10 @@
         <v>45560</v>
       </c>
       <c r="B179" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C179" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.7">
@@ -12482,10 +13010,10 @@
         <v>45561</v>
       </c>
       <c r="B180" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C180" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.7">
@@ -12493,10 +13021,10 @@
         <v>45562</v>
       </c>
       <c r="B181" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.7">
@@ -12504,10 +13032,10 @@
         <v>45563</v>
       </c>
       <c r="B182" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.7">
@@ -12515,10 +13043,10 @@
         <v>45564</v>
       </c>
       <c r="B183" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C183" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.7">
@@ -12526,10 +13054,10 @@
         <v>45565</v>
       </c>
       <c r="B184" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C184" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.7">
@@ -12537,10 +13065,10 @@
         <v>45566</v>
       </c>
       <c r="B185" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C185" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.7">
@@ -12548,10 +13076,10 @@
         <v>45567</v>
       </c>
       <c r="B186" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C186" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.7">
@@ -12559,10 +13087,10 @@
         <v>45568</v>
       </c>
       <c r="B187" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C187" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.7">
@@ -12570,10 +13098,10 @@
         <v>45569</v>
       </c>
       <c r="B188" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C188" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.7">
@@ -12581,10 +13109,10 @@
         <v>45570</v>
       </c>
       <c r="B189" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C189" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.7">
@@ -12592,10 +13120,10 @@
         <v>45571</v>
       </c>
       <c r="B190" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C190" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.7">
@@ -12603,10 +13131,10 @@
         <v>45572</v>
       </c>
       <c r="B191" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C191" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.7">
@@ -12614,10 +13142,10 @@
         <v>45573</v>
       </c>
       <c r="B192" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C192" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.7">
@@ -12625,10 +13153,10 @@
         <v>45574</v>
       </c>
       <c r="B193" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C193" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.7">
@@ -12636,10 +13164,10 @@
         <v>45575</v>
       </c>
       <c r="B194" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.7">
@@ -12647,10 +13175,10 @@
         <v>45576</v>
       </c>
       <c r="B195" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.7">
@@ -12658,10 +13186,10 @@
         <v>45577</v>
       </c>
       <c r="B196" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C196" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.7">
@@ -12669,10 +13197,10 @@
         <v>45578</v>
       </c>
       <c r="B197" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C197" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.7">
@@ -12680,10 +13208,10 @@
         <v>45579</v>
       </c>
       <c r="B198" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C198" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.7">
@@ -12691,10 +13219,10 @@
         <v>45580</v>
       </c>
       <c r="B199" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C199" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.7">
@@ -12702,10 +13230,10 @@
         <v>45581</v>
       </c>
       <c r="B200" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C200" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.7">
@@ -12713,10 +13241,10 @@
         <v>45582</v>
       </c>
       <c r="B201" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C201" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.7">
@@ -12724,10 +13252,10 @@
         <v>45583</v>
       </c>
       <c r="B202" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C202" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.7">
@@ -12735,10 +13263,10 @@
         <v>45584</v>
       </c>
       <c r="B203" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C203" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.7">
@@ -12746,10 +13274,10 @@
         <v>45585</v>
       </c>
       <c r="B204" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C204" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.7">
@@ -12757,10 +13285,10 @@
         <v>45586</v>
       </c>
       <c r="B205" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C205" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.7">
@@ -12768,10 +13296,10 @@
         <v>45587</v>
       </c>
       <c r="B206" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C206" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.7">
@@ -12779,10 +13307,10 @@
         <v>45588</v>
       </c>
       <c r="B207" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C207" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.7">
@@ -12790,10 +13318,10 @@
         <v>45589</v>
       </c>
       <c r="B208" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C208" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.7">
@@ -12801,10 +13329,10 @@
         <v>45590</v>
       </c>
       <c r="B209" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C209" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.7">
@@ -12812,10 +13340,10 @@
         <v>45591</v>
       </c>
       <c r="B210" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C210" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.7">
@@ -12823,10 +13351,10 @@
         <v>45592</v>
       </c>
       <c r="B211" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C211" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.7">
@@ -12834,10 +13362,10 @@
         <v>45593</v>
       </c>
       <c r="B212" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C212" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.7">
@@ -12845,10 +13373,10 @@
         <v>45594</v>
       </c>
       <c r="B213" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C213" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.7">
@@ -12856,10 +13384,10 @@
         <v>45595</v>
       </c>
       <c r="B214" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C214" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.7">
@@ -12867,10 +13395,10 @@
         <v>45596</v>
       </c>
       <c r="B215" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C215" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.7">
@@ -12878,10 +13406,10 @@
         <v>45597</v>
       </c>
       <c r="B216" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C216" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.7">
@@ -12889,10 +13417,10 @@
         <v>45598</v>
       </c>
       <c r="B217" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C217" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.7">
@@ -12900,10 +13428,10 @@
         <v>45599</v>
       </c>
       <c r="B218" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C218" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.7">
@@ -12911,10 +13439,10 @@
         <v>45600</v>
       </c>
       <c r="B219" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C219" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.7">
@@ -12922,10 +13450,10 @@
         <v>45601</v>
       </c>
       <c r="B220" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C220" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.7">
@@ -12933,10 +13461,10 @@
         <v>45602</v>
       </c>
       <c r="B221" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C221" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.7">
@@ -12944,10 +13472,10 @@
         <v>45603</v>
       </c>
       <c r="B222" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C222" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.7">
@@ -12955,10 +13483,10 @@
         <v>45604</v>
       </c>
       <c r="B223" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C223" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.7">
@@ -12966,10 +13494,10 @@
         <v>45605</v>
       </c>
       <c r="B224" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C224" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.7">
@@ -12977,10 +13505,10 @@
         <v>45606</v>
       </c>
       <c r="B225" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C225" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.7">
@@ -12988,10 +13516,10 @@
         <v>45607</v>
       </c>
       <c r="B226" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C226" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.7">
@@ -12999,10 +13527,10 @@
         <v>45608</v>
       </c>
       <c r="B227" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C227" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.7">
@@ -13010,10 +13538,10 @@
         <v>45609</v>
       </c>
       <c r="B228" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C228" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.7">
@@ -13021,10 +13549,10 @@
         <v>45610</v>
       </c>
       <c r="B229" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C229" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.7">
@@ -13032,10 +13560,10 @@
         <v>45611</v>
       </c>
       <c r="B230" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C230" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.7">
@@ -13043,10 +13571,10 @@
         <v>45612</v>
       </c>
       <c r="B231" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C231" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.7">
@@ -13054,10 +13582,10 @@
         <v>45613</v>
       </c>
       <c r="B232" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C232" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.7">
@@ -13065,10 +13593,10 @@
         <v>45614</v>
       </c>
       <c r="B233" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C233" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.7">
@@ -13076,10 +13604,10 @@
         <v>45615</v>
       </c>
       <c r="B234" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C234" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.7">
@@ -13087,10 +13615,10 @@
         <v>45616</v>
       </c>
       <c r="B235" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C235" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.7">
@@ -13098,10 +13626,10 @@
         <v>45617</v>
       </c>
       <c r="B236" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C236" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.7">
@@ -13109,10 +13637,10 @@
         <v>45618</v>
       </c>
       <c r="B237" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C237" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.7">
@@ -13120,10 +13648,10 @@
         <v>45619</v>
       </c>
       <c r="B238" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C238" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.7">
@@ -13131,10 +13659,10 @@
         <v>45620</v>
       </c>
       <c r="B239" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C239" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.7">
@@ -13142,10 +13670,10 @@
         <v>45621</v>
       </c>
       <c r="B240" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C240" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.7">
@@ -13153,10 +13681,10 @@
         <v>45622</v>
       </c>
       <c r="B241" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C241" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.7">
@@ -13164,10 +13692,10 @@
         <v>45623</v>
       </c>
       <c r="B242" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C242" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.7">
@@ -13175,10 +13703,10 @@
         <v>45624</v>
       </c>
       <c r="B243" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C243" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.7">
@@ -13186,10 +13714,10 @@
         <v>45625</v>
       </c>
       <c r="B244" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C244" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.7">
@@ -13197,10 +13725,10 @@
         <v>45626</v>
       </c>
       <c r="B245" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C245" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.7">
@@ -13208,10 +13736,10 @@
         <v>45627</v>
       </c>
       <c r="B246" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C246" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.7">
@@ -13219,10 +13747,10 @@
         <v>45628</v>
       </c>
       <c r="B247" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C247" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.7">
@@ -13230,10 +13758,10 @@
         <v>45629</v>
       </c>
       <c r="B248" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C248" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.7">
@@ -13241,10 +13769,10 @@
         <v>45630</v>
       </c>
       <c r="B249" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C249" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.7">
@@ -13252,10 +13780,10 @@
         <v>45631</v>
       </c>
       <c r="B250" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C250" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.7">
@@ -13263,10 +13791,10 @@
         <v>45632</v>
       </c>
       <c r="B251" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C251" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.7">
@@ -13274,10 +13802,10 @@
         <v>45633</v>
       </c>
       <c r="B252" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C252" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.7">
@@ -13285,10 +13813,10 @@
         <v>45634</v>
       </c>
       <c r="B253" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C253" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.7">
@@ -13296,10 +13824,10 @@
         <v>45635</v>
       </c>
       <c r="B254" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C254" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.7">
@@ -13307,10 +13835,10 @@
         <v>45636</v>
       </c>
       <c r="B255" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C255" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.7">
@@ -13318,10 +13846,10 @@
         <v>45637</v>
       </c>
       <c r="B256" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C256" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.7">
@@ -13329,10 +13857,10 @@
         <v>45638</v>
       </c>
       <c r="B257" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C257" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.7">
@@ -13340,10 +13868,10 @@
         <v>45639</v>
       </c>
       <c r="B258" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C258" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.7">
@@ -13351,10 +13879,10 @@
         <v>45640</v>
       </c>
       <c r="B259" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C259" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.7">
@@ -13362,10 +13890,10 @@
         <v>45641</v>
       </c>
       <c r="B260" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C260" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.7">
@@ -13373,10 +13901,10 @@
         <v>45642</v>
       </c>
       <c r="B261" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C261" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.7">
@@ -13384,10 +13912,10 @@
         <v>45643</v>
       </c>
       <c r="B262" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C262" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.7">
@@ -13395,10 +13923,10 @@
         <v>45644</v>
       </c>
       <c r="B263" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C263" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.7">
@@ -13406,10 +13934,10 @@
         <v>45645</v>
       </c>
       <c r="B264" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C264" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.7">
@@ -13417,10 +13945,10 @@
         <v>45646</v>
       </c>
       <c r="B265" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C265" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.7">
@@ -13428,10 +13956,10 @@
         <v>45647</v>
       </c>
       <c r="B266" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C266" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.7">
@@ -13439,10 +13967,10 @@
         <v>45648</v>
       </c>
       <c r="B267" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C267" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.7">
@@ -13450,10 +13978,10 @@
         <v>45649</v>
       </c>
       <c r="B268" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C268" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.7">
@@ -13461,10 +13989,10 @@
         <v>45650</v>
       </c>
       <c r="B269" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C269" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.7">
@@ -13472,10 +14000,10 @@
         <v>45651</v>
       </c>
       <c r="B270" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C270" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.7">
@@ -13483,10 +14011,10 @@
         <v>45652</v>
       </c>
       <c r="B271" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C271" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.7">
@@ -13494,10 +14022,10 @@
         <v>45653</v>
       </c>
       <c r="B272" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C272" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.7">
@@ -13505,10 +14033,10 @@
         <v>45654</v>
       </c>
       <c r="B273" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C273" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.7">
@@ -13516,10 +14044,10 @@
         <v>45655</v>
       </c>
       <c r="B274" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C274" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.7">
@@ -13527,10 +14055,10 @@
         <v>45656</v>
       </c>
       <c r="B275" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C275" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.7">
@@ -13538,10 +14066,10 @@
         <v>45657</v>
       </c>
       <c r="B276" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C276" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.7">
@@ -13549,10 +14077,10 @@
         <v>45658</v>
       </c>
       <c r="B277" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C277" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.7">
@@ -13560,10 +14088,10 @@
         <v>45659</v>
       </c>
       <c r="B278" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C278" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.7">
@@ -13571,10 +14099,10 @@
         <v>45660</v>
       </c>
       <c r="B279" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C279" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.7">
@@ -13582,10 +14110,10 @@
         <v>45661</v>
       </c>
       <c r="B280" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C280" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.7">
@@ -13593,10 +14121,10 @@
         <v>45662</v>
       </c>
       <c r="B281" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C281" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.7">
@@ -13604,10 +14132,10 @@
         <v>45663</v>
       </c>
       <c r="B282" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C282" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.7">
@@ -13615,10 +14143,10 @@
         <v>45664</v>
       </c>
       <c r="B283" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C283" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.7">
@@ -13626,10 +14154,10 @@
         <v>45665</v>
       </c>
       <c r="B284" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C284" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.7">
@@ -13637,10 +14165,10 @@
         <v>45666</v>
       </c>
       <c r="B285" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C285" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.7">
@@ -13648,10 +14176,10 @@
         <v>45667</v>
       </c>
       <c r="B286" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C286" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.7">
@@ -13659,10 +14187,10 @@
         <v>45668</v>
       </c>
       <c r="B287" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C287" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.7">
@@ -13670,10 +14198,10 @@
         <v>45669</v>
       </c>
       <c r="B288" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C288" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.7">
@@ -13681,10 +14209,10 @@
         <v>45670</v>
       </c>
       <c r="B289" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C289" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.7">
@@ -13692,10 +14220,10 @@
         <v>45671</v>
       </c>
       <c r="B290" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C290" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.7">
@@ -13703,10 +14231,10 @@
         <v>45672</v>
       </c>
       <c r="B291" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C291" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.7">
@@ -13714,10 +14242,10 @@
         <v>45673</v>
       </c>
       <c r="B292" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C292" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.7">
@@ -13725,10 +14253,10 @@
         <v>45674</v>
       </c>
       <c r="B293" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C293" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.7">
@@ -13736,10 +14264,10 @@
         <v>45675</v>
       </c>
       <c r="B294" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C294" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.7">
@@ -13747,10 +14275,10 @@
         <v>45676</v>
       </c>
       <c r="B295" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C295" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.7">
@@ -13758,10 +14286,10 @@
         <v>45677</v>
       </c>
       <c r="B296" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C296" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.7">
@@ -13769,10 +14297,10 @@
         <v>45678</v>
       </c>
       <c r="B297" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C297" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.7">
@@ -13780,10 +14308,10 @@
         <v>45679</v>
       </c>
       <c r="B298" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C298" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.7">
@@ -13791,10 +14319,10 @@
         <v>45680</v>
       </c>
       <c r="B299" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C299" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.7">
@@ -13802,10 +14330,10 @@
         <v>45681</v>
       </c>
       <c r="B300" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C300" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.7">
@@ -13813,10 +14341,10 @@
         <v>45682</v>
       </c>
       <c r="B301" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C301" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.7">
@@ -13824,10 +14352,10 @@
         <v>45683</v>
       </c>
       <c r="B302" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C302" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.7">
@@ -13835,10 +14363,10 @@
         <v>45684</v>
       </c>
       <c r="B303" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C303" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.7">
@@ -13846,10 +14374,10 @@
         <v>45685</v>
       </c>
       <c r="B304" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C304" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.7">
@@ -13857,10 +14385,10 @@
         <v>45686</v>
       </c>
       <c r="B305" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C305" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.7">
@@ -13868,10 +14396,10 @@
         <v>45687</v>
       </c>
       <c r="B306" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C306" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.7">
@@ -13879,10 +14407,10 @@
         <v>45688</v>
       </c>
       <c r="B307" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C307" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.7">
@@ -13890,10 +14418,10 @@
         <v>45689</v>
       </c>
       <c r="B308" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C308" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.7">
@@ -13901,10 +14429,10 @@
         <v>45690</v>
       </c>
       <c r="B309" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C309" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.7">
@@ -13912,10 +14440,10 @@
         <v>45691</v>
       </c>
       <c r="B310" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C310" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.7">
@@ -13923,10 +14451,10 @@
         <v>45692</v>
       </c>
       <c r="B311" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C311" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.7">
@@ -13934,10 +14462,10 @@
         <v>45693</v>
       </c>
       <c r="B312" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C312" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.7">
@@ -13945,10 +14473,10 @@
         <v>45694</v>
       </c>
       <c r="B313" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C313" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.7">
@@ -13956,10 +14484,10 @@
         <v>45695</v>
       </c>
       <c r="B314" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C314" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.7">
@@ -13967,10 +14495,10 @@
         <v>45696</v>
       </c>
       <c r="B315" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C315" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.7">
@@ -13978,10 +14506,10 @@
         <v>45697</v>
       </c>
       <c r="B316" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C316" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.7">
@@ -13989,10 +14517,10 @@
         <v>45698</v>
       </c>
       <c r="B317" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C317" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.7">
@@ -14000,10 +14528,10 @@
         <v>45699</v>
       </c>
       <c r="B318" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C318" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.7">
@@ -14011,10 +14539,10 @@
         <v>45700</v>
       </c>
       <c r="B319" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C319" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.7">
@@ -14022,10 +14550,10 @@
         <v>45701</v>
       </c>
       <c r="B320" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C320" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.7">
@@ -14033,10 +14561,10 @@
         <v>45702</v>
       </c>
       <c r="B321" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C321" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.7">
@@ -14044,10 +14572,10 @@
         <v>45703</v>
       </c>
       <c r="B322" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C322" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.7">
@@ -14055,10 +14583,10 @@
         <v>45704</v>
       </c>
       <c r="B323" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C323" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.7">
@@ -14066,10 +14594,10 @@
         <v>45705</v>
       </c>
       <c r="B324" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C324" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.7">
@@ -14077,10 +14605,10 @@
         <v>45706</v>
       </c>
       <c r="B325" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C325" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.7">
@@ -14088,10 +14616,10 @@
         <v>45707</v>
       </c>
       <c r="B326" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C326" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.7">
@@ -14099,10 +14627,10 @@
         <v>45708</v>
       </c>
       <c r="B327" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C327" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.7">
@@ -14110,10 +14638,10 @@
         <v>45709</v>
       </c>
       <c r="B328" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C328" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.7">
@@ -14121,10 +14649,10 @@
         <v>45710</v>
       </c>
       <c r="B329" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C329" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.7">
@@ -14132,10 +14660,10 @@
         <v>45711</v>
       </c>
       <c r="B330" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C330" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.7">
@@ -14143,10 +14671,10 @@
         <v>45712</v>
       </c>
       <c r="B331" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C331" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.7">
@@ -14154,10 +14682,10 @@
         <v>45713</v>
       </c>
       <c r="B332" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C332" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.7">
@@ -14165,10 +14693,10 @@
         <v>45714</v>
       </c>
       <c r="B333" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C333" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.7">
@@ -14176,10 +14704,10 @@
         <v>45715</v>
       </c>
       <c r="B334" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C334" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.7">
@@ -14187,10 +14715,10 @@
         <v>45716</v>
       </c>
       <c r="B335" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C335" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.7">
@@ -14198,10 +14726,10 @@
         <v>45717</v>
       </c>
       <c r="B336" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C336" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.7">
@@ -14209,10 +14737,10 @@
         <v>45718</v>
       </c>
       <c r="B337" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C337" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.7">
@@ -14220,10 +14748,10 @@
         <v>45719</v>
       </c>
       <c r="B338" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C338" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.7">
@@ -14231,10 +14759,10 @@
         <v>45720</v>
       </c>
       <c r="B339" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C339" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.7">
@@ -14242,10 +14770,10 @@
         <v>45721</v>
       </c>
       <c r="B340" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C340" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.7">
@@ -14253,10 +14781,10 @@
         <v>45722</v>
       </c>
       <c r="B341" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C341" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.7">
@@ -14264,10 +14792,10 @@
         <v>45723</v>
       </c>
       <c r="B342" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C342" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.7">
@@ -14275,10 +14803,10 @@
         <v>45724</v>
       </c>
       <c r="B343" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C343" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.7">
@@ -14286,10 +14814,10 @@
         <v>45725</v>
       </c>
       <c r="B344" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C344" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.7">
@@ -14297,10 +14825,10 @@
         <v>45726</v>
       </c>
       <c r="B345" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C345" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.7">
@@ -14308,10 +14836,10 @@
         <v>45727</v>
       </c>
       <c r="B346" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C346" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.7">
@@ -14319,10 +14847,10 @@
         <v>45728</v>
       </c>
       <c r="B347" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C347" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.7">
@@ -14330,10 +14858,10 @@
         <v>45729</v>
       </c>
       <c r="B348" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C348" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.7">
@@ -14341,10 +14869,10 @@
         <v>45730</v>
       </c>
       <c r="B349" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C349" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.7">
@@ -14352,10 +14880,10 @@
         <v>45731</v>
       </c>
       <c r="B350" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C350" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.7">
@@ -14363,10 +14891,10 @@
         <v>45732</v>
       </c>
       <c r="B351" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C351" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.7">
@@ -14374,10 +14902,10 @@
         <v>45733</v>
       </c>
       <c r="B352" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C352" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.7">
@@ -14385,10 +14913,10 @@
         <v>45734</v>
       </c>
       <c r="B353" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C353" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.7">
@@ -14396,10 +14924,10 @@
         <v>45735</v>
       </c>
       <c r="B354" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C354" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.7">
@@ -14407,10 +14935,10 @@
         <v>45736</v>
       </c>
       <c r="B355" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C355" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.7">
@@ -14418,10 +14946,10 @@
         <v>45737</v>
       </c>
       <c r="B356" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C356" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.7">
@@ -14429,10 +14957,10 @@
         <v>45738</v>
       </c>
       <c r="B357" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C357" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.7">
@@ -14440,10 +14968,10 @@
         <v>45739</v>
       </c>
       <c r="B358" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C358" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.7">
@@ -14451,10 +14979,10 @@
         <v>45740</v>
       </c>
       <c r="B359" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C359" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.7">
@@ -14462,10 +14990,10 @@
         <v>45741</v>
       </c>
       <c r="B360" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C360" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.7">
@@ -14473,10 +15001,10 @@
         <v>45742</v>
       </c>
       <c r="B361" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C361" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.7">
@@ -14484,10 +15012,10 @@
         <v>45743</v>
       </c>
       <c r="B362" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C362" s="29" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.7">
@@ -14495,10 +15023,10 @@
         <v>45744</v>
       </c>
       <c r="B363" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C363" s="29" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.7">
@@ -14506,10 +15034,10 @@
         <v>45745</v>
       </c>
       <c r="B364" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C364" s="29" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.7">
@@ -14517,10 +15045,10 @@
         <v>45746</v>
       </c>
       <c r="B365" s="28" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C365" s="29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.7">
@@ -14528,10 +15056,10 @@
         <v>45747</v>
       </c>
       <c r="B366" s="28" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C366" s="29" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\02_Personal\02_TMC\研修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3739A1-8702-443D-9B18-A88760F67F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{F6EA1F00-7757-4960-BE67-4F93149073FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC83E96-917C-408D-975A-86385295125D}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="22733" windowHeight="12653" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="912" yWindow="13308" windowWidth="21600" windowHeight="11232" activeTab="1" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="304">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -1712,6 +1712,16 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件付き書式</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウケンツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショシキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1934,7 +1944,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2028,9 +2038,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2042,6 +2049,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2079,14 +2095,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>705850</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:colOff>709660</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>10794</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2129,14 +2145,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>328613</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>701088</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:colOff>704898</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2179,14 +2195,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>710613</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:colOff>712518</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>21272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2229,14 +2245,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>710613</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>17462</xdr:rowOff>
+      <xdr:colOff>712518</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>21272</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2279,7 +2295,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>338138</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="372475" cy="346075"/>
@@ -2915,59 +2931,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795CA75-2E57-4007-A1E6-AF0752BF2C5D}">
-  <dimension ref="B2:B18"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B4" s="21" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B6" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B8" s="21" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B10" s="21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B12" s="21" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B14" s="21" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B16" s="21" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="21" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.7">
-      <c r="B18" s="21" t="s">
-        <v>279</v>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20" s="21" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2979,19 +3009,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{574642DF-B6FC-47D7-8F4E-74F8116D6D0D}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.1875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3017,7 +3050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3043,7 +3076,7 @@
         <v>94.900001525878906</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3069,7 +3102,7 @@
         <v>49.900001525878906</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3095,7 +3128,7 @@
         <v>92.400001525878906</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3121,7 +3154,7 @@
         <v>58.200000762939453</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3147,308 +3180,178 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7">
-        <v>35</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6">
-        <v>157.5</v>
-      </c>
-      <c r="H7" s="6">
-        <v>65.800003051757813</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="7">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="6">
-        <v>162.39999389648438</v>
-      </c>
-      <c r="H8" s="6">
-        <v>50.900001525878906</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="7">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="6">
-        <v>188.89999389648438</v>
-      </c>
-      <c r="H9" s="6">
-        <v>73.400001525878906</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="7">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6">
-        <v>160.5</v>
-      </c>
-      <c r="H10" s="6">
-        <v>64.199996948242188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A11" s="5">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="7">
-        <v>39</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="6">
-        <v>158.39999389648438</v>
-      </c>
-      <c r="H11" s="6">
-        <v>56.400001525878906</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B13" s="21" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B8" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C8" s="21" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="D15" s="22" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D10" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="D16" s="22"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="C17" s="23" t="s">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D11" s="22"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C12" s="23" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B19" s="21" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C14" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D21" s="22" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="D16" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D22" s="22" t="s">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D17" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="C24" s="23" t="s">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C19" s="23" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D23" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D24" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="21" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D28" s="22" t="s">
         <v>289</v>
       </c>
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D29" s="22" t="s">
         <v>290</v>
       </c>
       <c r="E29" s="9"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="21" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D33" s="22" t="s">
         <v>289</v>
       </c>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D34" s="22" t="s">
         <v>290</v>
       </c>
       <c r="E34" s="9"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B36" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D38" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D39" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D40" s="22"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="C41" s="23" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D35" s="22"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C36" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="D41" s="22"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B43" s="21" t="s">
+      <c r="D36" s="22"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="C45" s="23" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C40" s="23" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D47" s="22" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D42" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D48" s="22" t="s">
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D43" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="B50" s="21" t="s">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B45" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C45" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="C52" s="23" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C47" s="23" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D54" s="22" t="s">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D49" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="E54" s="9"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.7">
-      <c r="D55" s="22" t="s">
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.4">
+      <c r="D50" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E50" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3464,16 +3367,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="10.8125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3500,7 +3403,7 @@
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3526,7 +3429,7 @@
         <v>94.900001525878906</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3552,7 +3455,7 @@
         <v>49.900001525878906</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3578,7 +3481,7 @@
         <v>92.400001525878906</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3604,7 +3507,7 @@
         <v>58.200000762939453</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3630,7 +3533,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3656,7 +3559,7 @@
         <v>65.800003051757813</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3682,7 +3585,7 @@
         <v>50.900001525878906</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3708,7 +3611,7 @@
         <v>73.400001525878906</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3734,7 +3637,7 @@
         <v>64.199996948242188</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3760,7 +3663,7 @@
         <v>56.400001525878906</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3786,7 +3689,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3812,7 +3715,7 @@
         <v>46.200000762939453</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3838,7 +3741,7 @@
         <v>59.200000762939453</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3864,7 +3767,7 @@
         <v>43.200000762939453</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3890,7 +3793,7 @@
         <v>64.900001525878906</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3916,7 +3819,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3942,7 +3845,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3968,7 +3871,7 @@
         <v>85.400001525878906</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3994,7 +3897,7 @@
         <v>71.699996948242188</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -4020,7 +3923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -4046,7 +3949,7 @@
         <v>68.300003051757813</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -4072,7 +3975,7 @@
         <v>84.099998474121094</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4098,7 +4001,7 @@
         <v>66.300003051757813</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -4124,7 +4027,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4150,7 +4053,7 @@
         <v>48.200000762939453</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -4176,7 +4079,7 @@
         <v>84.199996948242188</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -4202,7 +4105,7 @@
         <v>65.199996948242188</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -4228,7 +4131,7 @@
         <v>57.099998474121094</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -4254,7 +4157,7 @@
         <v>43.299999237060547</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -4280,7 +4183,7 @@
         <v>70.599998474121094</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -4306,7 +4209,7 @@
         <v>44.900001525878906</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -4332,7 +4235,7 @@
         <v>62.900001525878906</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -4358,7 +4261,7 @@
         <v>72.900001525878906</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -4384,7 +4287,7 @@
         <v>60.799999237060547</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -4410,7 +4313,7 @@
         <v>58.400001525878906</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -4436,7 +4339,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -4462,7 +4365,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -4488,7 +4391,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -4514,7 +4417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -4540,7 +4443,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -4566,7 +4469,7 @@
         <v>71.099998474121094</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -4592,7 +4495,7 @@
         <v>75.800003051757813</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -4618,7 +4521,7 @@
         <v>61.200000762939453</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -4644,7 +4547,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -4670,7 +4573,7 @@
         <v>40.799999237060547</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -4696,7 +4599,7 @@
         <v>85.099998474121094</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -4722,7 +4625,7 @@
         <v>53.599998474121094</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -4748,7 +4651,7 @@
         <v>45.599998474121094</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -4774,7 +4677,7 @@
         <v>43.900001525878906</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -4800,7 +4703,7 @@
         <v>79.199996948242188</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -4826,7 +4729,7 @@
         <v>58.700000762939453</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -4852,7 +4755,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -4878,7 +4781,7 @@
         <v>41.900001525878906</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -4904,7 +4807,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -4930,7 +4833,7 @@
         <v>76.400001525878906</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -4956,7 +4859,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -4982,7 +4885,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -5008,7 +4911,7 @@
         <v>57.099998474121094</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -5034,7 +4937,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -5060,7 +4963,7 @@
         <v>63.700000762939453</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -5086,7 +4989,7 @@
         <v>45.799999237060547</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -5112,7 +5015,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -5138,7 +5041,7 @@
         <v>76.800003051757813</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -5164,7 +5067,7 @@
         <v>58.700000762939453</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -5190,7 +5093,7 @@
         <v>45.900001525878906</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -5216,7 +5119,7 @@
         <v>60.900001525878906</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -5242,7 +5145,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -5268,7 +5171,7 @@
         <v>60.299999237060547</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -5294,7 +5197,7 @@
         <v>78.800003051757813</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -5320,7 +5223,7 @@
         <v>75.099998474121094</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -5346,7 +5249,7 @@
         <v>74.300003051757813</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -5372,7 +5275,7 @@
         <v>59.700000762939453</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -5398,7 +5301,7 @@
         <v>85.400001525878906</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -5424,7 +5327,7 @@
         <v>49.700000762939453</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -5450,7 +5353,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -5476,7 +5379,7 @@
         <v>80.400001525878906</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -5502,7 +5405,7 @@
         <v>52.799999237060547</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -5528,7 +5431,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -5554,7 +5457,7 @@
         <v>75.199996948242188</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -5580,7 +5483,7 @@
         <v>40.900001525878906</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -5606,7 +5509,7 @@
         <v>51.700000762939453</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -5632,7 +5535,7 @@
         <v>75.199996948242188</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -5658,7 +5561,7 @@
         <v>46.299999237060547</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -5684,7 +5587,7 @@
         <v>87.699996948242188</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -5710,7 +5613,7 @@
         <v>77.699996948242188</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -5736,7 +5639,7 @@
         <v>84.800003051757813</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -5762,7 +5665,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -5788,7 +5691,7 @@
         <v>77.300003051757813</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -5814,7 +5717,7 @@
         <v>78.599998474121094</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -5840,7 +5743,7 @@
         <v>75.699996948242188</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -5866,7 +5769,7 @@
         <v>44.599998474121094</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -5892,7 +5795,7 @@
         <v>56.200000762939453</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -5918,7 +5821,7 @@
         <v>80.199996948242188</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -5944,7 +5847,7 @@
         <v>83.900001525878906</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -5970,7 +5873,7 @@
         <v>57.900001525878906</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -5996,7 +5899,7 @@
         <v>55.200000762939453</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -6022,7 +5925,7 @@
         <v>79.400001525878906</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -6048,7 +5951,7 @@
         <v>57.299999237060547</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -6074,7 +5977,7 @@
         <v>54.799999237060547</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -6112,16 +6015,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.625" customWidth="1"/>
     <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="10"/>
-    <col min="4" max="4" width="10.8125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6148,7 +6051,7 @@
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -6174,7 +6077,7 @@
         <v>94.900001525878906</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -6200,7 +6103,7 @@
         <v>49.900001525878906</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -6226,7 +6129,7 @@
         <v>92.400001525878906</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -6252,7 +6155,7 @@
         <v>58.200000762939453</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -6278,7 +6181,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -6304,7 +6207,7 @@
         <v>65.800003051757813</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -6330,7 +6233,7 @@
         <v>50.900001525878906</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -6356,7 +6259,7 @@
         <v>73.400001525878906</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -6382,7 +6285,7 @@
         <v>64.199996948242188</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -6408,7 +6311,7 @@
         <v>56.400001525878906</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -6434,7 +6337,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -6460,7 +6363,7 @@
         <v>46.200000762939453</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -6486,7 +6389,7 @@
         <v>59.200000762939453</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -6512,7 +6415,7 @@
         <v>43.200000762939453</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -6538,7 +6441,7 @@
         <v>64.900001525878906</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -6564,7 +6467,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -6590,7 +6493,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -6616,7 +6519,7 @@
         <v>85.400001525878906</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -6642,7 +6545,7 @@
         <v>71.699996948242188</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -6668,7 +6571,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -6694,7 +6597,7 @@
         <v>68.300003051757813</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -6720,7 +6623,7 @@
         <v>84.099998474121094</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -6746,7 +6649,7 @@
         <v>66.300003051757813</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -6772,7 +6675,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -6798,7 +6701,7 @@
         <v>48.200000762939453</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -6824,7 +6727,7 @@
         <v>84.199996948242188</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -6850,7 +6753,7 @@
         <v>65.199996948242188</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -6876,7 +6779,7 @@
         <v>57.099998474121094</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -6902,7 +6805,7 @@
         <v>43.299999237060547</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -6928,7 +6831,7 @@
         <v>70.599998474121094</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -6954,7 +6857,7 @@
         <v>44.900001525878906</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -6980,7 +6883,7 @@
         <v>62.900001525878906</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -7006,7 +6909,7 @@
         <v>72.900001525878906</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -7032,7 +6935,7 @@
         <v>60.799999237060547</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -7058,7 +6961,7 @@
         <v>58.400001525878906</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -7084,7 +6987,7 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -7110,7 +7013,7 @@
         <v>46.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -7136,7 +7039,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -7162,7 +7065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -7188,7 +7091,7 @@
         <v>64.5</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -7214,7 +7117,7 @@
         <v>71.099998474121094</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -7240,7 +7143,7 @@
         <v>75.800003051757813</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -7266,7 +7169,7 @@
         <v>61.200000762939453</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -7292,7 +7195,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -7318,7 +7221,7 @@
         <v>40.799999237060547</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -7344,7 +7247,7 @@
         <v>85.099998474121094</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -7370,7 +7273,7 @@
         <v>53.599998474121094</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -7396,7 +7299,7 @@
         <v>45.599998474121094</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -7422,7 +7325,7 @@
         <v>43.900001525878906</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -7448,7 +7351,7 @@
         <v>79.199996948242188</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -7474,7 +7377,7 @@
         <v>58.700000762939453</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -7500,7 +7403,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -7526,7 +7429,7 @@
         <v>41.900001525878906</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -7552,7 +7455,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -7578,7 +7481,7 @@
         <v>76.400001525878906</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -7604,7 +7507,7 @@
         <v>53.5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -7630,7 +7533,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -7656,7 +7559,7 @@
         <v>57.099998474121094</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -7682,7 +7585,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -7708,7 +7611,7 @@
         <v>63.700000762939453</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -7734,7 +7637,7 @@
         <v>45.799999237060547</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -7760,7 +7663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -7786,7 +7689,7 @@
         <v>76.800003051757813</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -7812,7 +7715,7 @@
         <v>58.700000762939453</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -7838,7 +7741,7 @@
         <v>45.900001525878906</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -7864,7 +7767,7 @@
         <v>60.900001525878906</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -7890,7 +7793,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -7916,7 +7819,7 @@
         <v>60.299999237060547</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -7942,7 +7845,7 @@
         <v>78.800003051757813</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -7968,7 +7871,7 @@
         <v>75.099998474121094</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -7994,7 +7897,7 @@
         <v>74.300003051757813</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -8020,7 +7923,7 @@
         <v>59.700000762939453</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -8046,7 +7949,7 @@
         <v>85.400001525878906</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -8072,7 +7975,7 @@
         <v>49.700000762939453</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -8098,7 +8001,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -8124,7 +8027,7 @@
         <v>80.400001525878906</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -8150,7 +8053,7 @@
         <v>52.799999237060547</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -8176,7 +8079,7 @@
         <v>90.5</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -8202,7 +8105,7 @@
         <v>75.199996948242188</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -8228,7 +8131,7 @@
         <v>40.900001525878906</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -8254,7 +8157,7 @@
         <v>51.700000762939453</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -8280,7 +8183,7 @@
         <v>75.199996948242188</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -8306,7 +8209,7 @@
         <v>46.299999237060547</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -8332,7 +8235,7 @@
         <v>87.699996948242188</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -8358,7 +8261,7 @@
         <v>77.699996948242188</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -8384,7 +8287,7 @@
         <v>84.800003051757813</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -8410,7 +8313,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -8436,7 +8339,7 @@
         <v>77.300003051757813</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -8462,7 +8365,7 @@
         <v>78.599998474121094</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -8488,7 +8391,7 @@
         <v>75.699996948242188</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -8514,7 +8417,7 @@
         <v>44.599998474121094</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -8540,7 +8443,7 @@
         <v>56.200000762939453</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -8566,7 +8469,7 @@
         <v>80.199996948242188</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -8592,7 +8495,7 @@
         <v>83.900001525878906</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -8618,7 +8521,7 @@
         <v>57.900001525878906</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -8644,7 +8547,7 @@
         <v>55.200000762939453</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -8670,7 +8573,7 @@
         <v>79.400001525878906</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -8696,7 +8599,7 @@
         <v>57.299999237060547</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -8722,7 +8625,7 @@
         <v>54.799999237060547</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -8760,13 +8663,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="3" width="9" style="10"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3" s="10">
         <v>1</v>
       </c>
@@ -8778,7 +8681,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="10">
         <v>1</v>
       </c>
@@ -8794,7 +8697,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="10">
         <v>1</v>
       </c>
@@ -8806,7 +8709,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="10">
         <v>1</v>
       </c>
@@ -8818,7 +8721,7 @@
         <v>#NULL!</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="E7" t="s">
         <v>280</v>
       </c>
@@ -8835,19 +8738,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6875" customWidth="1"/>
-    <col min="3" max="33" width="5.5625" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="33" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:33" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A2" s="13">
         <v>2024</v>
       </c>
@@ -8855,12 +8758,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
         <v>215</v>
       </c>
@@ -8992,7 +8895,7 @@
         <v>45596</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="17" t="s">
@@ -9089,7 +8992,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -9124,7 +9027,7 @@
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -9159,7 +9062,7 @@
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -9194,7 +9097,7 @@
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -9229,7 +9132,7 @@
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -9264,7 +9167,7 @@
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -9299,7 +9202,7 @@
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -9334,7 +9237,7 @@
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -9369,7 +9272,7 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -9404,7 +9307,7 @@
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -9439,7 +9342,7 @@
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -9474,7 +9377,7 @@
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -9509,30 +9412,30 @@
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C21" s="21" t="s">
         <v>227</v>
       </c>
       <c r="D21" s="21"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C22" s="21"/>
       <c r="D22" s="21" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C23" s="21"/>
       <c r="D23" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.4">
       <c r="D25" s="22" t="s">
         <v>230</v>
       </c>
@@ -9540,7 +9443,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.4">
       <c r="D26" s="22" t="s">
         <v>230</v>
       </c>
@@ -9548,13 +9451,13 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.4">
       <c r="D27" s="22"/>
       <c r="E27" s="23" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.4">
       <c r="D28" s="22" t="s">
         <v>230</v>
       </c>
@@ -9562,7 +9465,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.4">
       <c r="D29" s="22" t="s">
         <v>230</v>
       </c>
@@ -9570,25 +9473,25 @@
         <v>234</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C31" s="21" t="s">
         <v>235</v>
       </c>
       <c r="D31" s="21"/>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.4">
       <c r="C32" s="21"/>
       <c r="D32" s="24" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C33" s="21"/>
       <c r="D33" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D35" s="22" t="s">
         <v>230</v>
       </c>
@@ -9596,7 +9499,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D36" s="22" t="s">
         <v>230</v>
       </c>
@@ -9604,13 +9507,13 @@
         <v>239</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D37" s="22"/>
       <c r="E37" s="23" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D38" s="22" t="s">
         <v>230</v>
       </c>
@@ -9618,35 +9521,35 @@
         <v>241</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C40" s="21" t="s">
         <v>242</v>
       </c>
       <c r="D40" s="21"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C41" s="21"/>
       <c r="D41" s="21" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C42" s="21"/>
       <c r="D42" s="21"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C43" s="21" t="s">
         <v>244</v>
       </c>
       <c r="D43" s="21"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C44" s="21"/>
       <c r="D44" s="21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D46" s="22" t="s">
         <v>230</v>
       </c>
@@ -9671,18 +9574,18 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="64" width="5.5625" customWidth="1"/>
+    <col min="3" max="64" width="5.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="22.9" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:64" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="12" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A2" s="13">
         <v>2024</v>
       </c>
@@ -9690,272 +9593,272 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A5" s="31" t="s">
         <v>215</v>
       </c>
       <c r="B5" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="33">
         <v>1</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34">
+      <c r="D5" s="34"/>
+      <c r="E5" s="33">
         <v>2</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="34">
+      <c r="F5" s="34"/>
+      <c r="G5" s="33">
         <v>3</v>
       </c>
-      <c r="H5" s="35"/>
-      <c r="I5" s="34">
+      <c r="H5" s="34"/>
+      <c r="I5" s="33">
         <v>4</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="36">
+      <c r="J5" s="34"/>
+      <c r="K5" s="35">
         <v>5</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="36">
+      <c r="L5" s="36"/>
+      <c r="M5" s="35">
         <v>6</v>
       </c>
-      <c r="N5" s="37"/>
-      <c r="O5" s="34">
+      <c r="N5" s="36"/>
+      <c r="O5" s="33">
         <v>7</v>
       </c>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="34">
+      <c r="P5" s="34"/>
+      <c r="Q5" s="33">
         <v>8</v>
       </c>
-      <c r="R5" s="35"/>
-      <c r="S5" s="34">
+      <c r="R5" s="34"/>
+      <c r="S5" s="33">
         <v>9</v>
       </c>
-      <c r="T5" s="35"/>
-      <c r="U5" s="34">
+      <c r="T5" s="34"/>
+      <c r="U5" s="33">
         <v>10</v>
       </c>
-      <c r="V5" s="35"/>
-      <c r="W5" s="34">
+      <c r="V5" s="34"/>
+      <c r="W5" s="33">
         <v>11</v>
       </c>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="36">
+      <c r="X5" s="34"/>
+      <c r="Y5" s="35">
         <v>12</v>
       </c>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="36">
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="35">
         <v>13</v>
       </c>
-      <c r="AB5" s="37"/>
-      <c r="AC5" s="34">
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="33">
         <v>14</v>
       </c>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="34">
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="33">
         <v>15</v>
       </c>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="34">
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="33">
         <v>16</v>
       </c>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="34">
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="33">
         <v>17</v>
       </c>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="34">
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="33">
         <v>18</v>
       </c>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="36">
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="35">
         <v>19</v>
       </c>
-      <c r="AN5" s="37"/>
-      <c r="AO5" s="36">
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="35">
         <v>20</v>
       </c>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="34">
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="33">
         <v>21</v>
       </c>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="34">
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="33">
         <v>22</v>
       </c>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="34">
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="33">
         <v>23</v>
       </c>
-      <c r="AV5" s="35"/>
-      <c r="AW5" s="34">
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="33">
         <v>24</v>
       </c>
-      <c r="AX5" s="35"/>
-      <c r="AY5" s="34">
+      <c r="AX5" s="34"/>
+      <c r="AY5" s="33">
         <v>25</v>
       </c>
-      <c r="AZ5" s="35"/>
-      <c r="BA5" s="36">
+      <c r="AZ5" s="34"/>
+      <c r="BA5" s="35">
         <v>26</v>
       </c>
-      <c r="BB5" s="37"/>
-      <c r="BC5" s="36">
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="35">
         <v>27</v>
       </c>
-      <c r="BD5" s="37"/>
-      <c r="BE5" s="34">
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="33">
         <v>28</v>
       </c>
-      <c r="BF5" s="35"/>
-      <c r="BG5" s="34">
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="33">
         <v>29</v>
       </c>
-      <c r="BH5" s="35"/>
-      <c r="BI5" s="34">
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="33">
         <v>30</v>
       </c>
-      <c r="BJ5" s="35"/>
-      <c r="BK5" s="34">
+      <c r="BJ5" s="34"/>
+      <c r="BK5" s="33">
         <v>31</v>
       </c>
-      <c r="BL5" s="35"/>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.7">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
+      <c r="BL5" s="34"/>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.4">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="34"/>
+      <c r="E6" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="34" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="35"/>
-      <c r="K6" s="36" t="s">
+      <c r="J6" s="34"/>
+      <c r="K6" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="36" t="s">
+      <c r="L6" s="36"/>
+      <c r="M6" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="N6" s="37"/>
-      <c r="O6" s="34" t="s">
+      <c r="N6" s="36"/>
+      <c r="O6" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="34" t="s">
+      <c r="P6" s="34"/>
+      <c r="Q6" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="34" t="s">
+      <c r="R6" s="34"/>
+      <c r="S6" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="34" t="s">
+      <c r="T6" s="34"/>
+      <c r="U6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="V6" s="35"/>
-      <c r="W6" s="34" t="s">
+      <c r="V6" s="34"/>
+      <c r="W6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="36" t="s">
+      <c r="X6" s="34"/>
+      <c r="Y6" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="36" t="s">
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="34" t="s">
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="AD6" s="35"/>
-      <c r="AE6" s="34" t="s">
+      <c r="AD6" s="34"/>
+      <c r="AE6" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="34" t="s">
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="34" t="s">
+      <c r="AH6" s="34"/>
+      <c r="AI6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="34" t="s">
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="36" t="s">
+      <c r="AL6" s="34"/>
+      <c r="AM6" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="AN6" s="37"/>
-      <c r="AO6" s="36" t="s">
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AP6" s="37"/>
-      <c r="AQ6" s="34" t="s">
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="34" t="s">
+      <c r="AR6" s="34"/>
+      <c r="AS6" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="34" t="s">
+      <c r="AT6" s="34"/>
+      <c r="AU6" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="34" t="s">
+      <c r="AV6" s="34"/>
+      <c r="AW6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="AX6" s="35"/>
-      <c r="AY6" s="34" t="s">
+      <c r="AX6" s="34"/>
+      <c r="AY6" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="AZ6" s="35"/>
-      <c r="BA6" s="36" t="s">
+      <c r="AZ6" s="34"/>
+      <c r="BA6" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="BB6" s="37"/>
-      <c r="BC6" s="36" t="s">
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="BD6" s="37"/>
-      <c r="BE6" s="34" t="s">
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="33" t="s">
         <v>261</v>
       </c>
-      <c r="BF6" s="35"/>
-      <c r="BG6" s="34" t="s">
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="33" t="s">
         <v>260</v>
       </c>
-      <c r="BH6" s="35"/>
-      <c r="BI6" s="34" t="s">
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="BJ6" s="35"/>
-      <c r="BK6" s="34" t="s">
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="BL6" s="35"/>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.7">
+      <c r="BL6" s="34"/>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="17" t="s">
@@ -10145,7 +10048,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -10211,7 +10114,7 @@
       <c r="BK8" s="19"/>
       <c r="BL8" s="19"/>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -10277,7 +10180,7 @@
       <c r="BK9" s="19"/>
       <c r="BL9" s="19"/>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A10" s="19"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -10343,7 +10246,7 @@
       <c r="BK10" s="19"/>
       <c r="BL10" s="19"/>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -10409,7 +10312,7 @@
       <c r="BK11" s="19"/>
       <c r="BL11" s="19"/>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -10475,7 +10378,7 @@
       <c r="BK12" s="19"/>
       <c r="BL12" s="19"/>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -10541,7 +10444,7 @@
       <c r="BK13" s="19"/>
       <c r="BL13" s="19"/>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -10607,7 +10510,7 @@
       <c r="BK14" s="19"/>
       <c r="BL14" s="19"/>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -10673,7 +10576,7 @@
       <c r="BK15" s="19"/>
       <c r="BL15" s="19"/>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
@@ -10739,7 +10642,7 @@
       <c r="BK16" s="19"/>
       <c r="BL16" s="19"/>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -10805,7 +10708,7 @@
       <c r="BK17" s="19"/>
       <c r="BL17" s="19"/>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.4">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -10871,22 +10774,22 @@
       <c r="BK18" s="19"/>
       <c r="BL18" s="19"/>
     </row>
-    <row r="20" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:64" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:64" x14ac:dyDescent="0.4">
       <c r="C21" s="21" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.4">
       <c r="D22" s="21" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:64" x14ac:dyDescent="0.4">
       <c r="D24" s="22" t="s">
         <v>230</v>
       </c>
@@ -10894,19 +10797,19 @@
         <v>253</v>
       </c>
     </row>
-    <row r="26" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:64" x14ac:dyDescent="0.4">
       <c r="C26" s="21" t="s">
         <v>235</v>
       </c>
       <c r="D26" s="21"/>
     </row>
-    <row r="27" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:64" x14ac:dyDescent="0.4">
       <c r="C27" s="21"/>
       <c r="D27" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="29" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:64" x14ac:dyDescent="0.4">
       <c r="D29" s="22" t="s">
         <v>230</v>
       </c>
@@ -10914,25 +10817,25 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:64" x14ac:dyDescent="0.4">
       <c r="C31" s="21" t="s">
         <v>242</v>
       </c>
       <c r="D31" s="21"/>
     </row>
-    <row r="32" spans="1:64" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:64" x14ac:dyDescent="0.4">
       <c r="C32" s="21"/>
       <c r="D32" s="21" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.4">
       <c r="C33" s="21"/>
       <c r="D33" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.4">
       <c r="D35" s="22" t="s">
         <v>230</v>
       </c>
@@ -10940,61 +10843,13 @@
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.7">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.4">
       <c r="E36" s="23" t="s">
         <v>247</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -11011,6 +10866,54 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11027,15 +10930,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.5625" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5625" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.25" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>265</v>
       </c>
@@ -11046,7 +10949,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="27">
         <v>45383</v>
       </c>
@@ -11058,7 +10961,7 @@
       </c>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="27">
         <v>45384</v>
       </c>
@@ -11069,7 +10972,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="27">
         <v>45385</v>
       </c>
@@ -11080,7 +10983,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="27">
         <v>45386</v>
       </c>
@@ -11091,7 +10994,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="27">
         <v>45387</v>
       </c>
@@ -11102,7 +11005,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="27">
         <v>45388</v>
       </c>
@@ -11113,7 +11016,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="27">
         <v>45389</v>
       </c>
@@ -11124,7 +11027,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="27">
         <v>45390</v>
       </c>
@@ -11135,7 +11038,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="27">
         <v>45391</v>
       </c>
@@ -11146,7 +11049,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="27">
         <v>45392</v>
       </c>
@@ -11157,7 +11060,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="27">
         <v>45393</v>
       </c>
@@ -11168,7 +11071,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="27">
         <v>45394</v>
       </c>
@@ -11179,7 +11082,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="27">
         <v>45395</v>
       </c>
@@ -11190,7 +11093,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="27">
         <v>45396</v>
       </c>
@@ -11201,7 +11104,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="27">
         <v>45397</v>
       </c>
@@ -11212,7 +11115,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="27">
         <v>45398</v>
       </c>
@@ -11223,7 +11126,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="27">
         <v>45399</v>
       </c>
@@ -11234,7 +11137,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="27">
         <v>45400</v>
       </c>
@@ -11245,7 +11148,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="27">
         <v>45401</v>
       </c>
@@ -11256,7 +11159,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="27">
         <v>45402</v>
       </c>
@@ -11267,7 +11170,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="27">
         <v>45403</v>
       </c>
@@ -11278,7 +11181,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="27">
         <v>45404</v>
       </c>
@@ -11289,7 +11192,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="27">
         <v>45405</v>
       </c>
@@ -11300,7 +11203,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="27">
         <v>45406</v>
       </c>
@@ -11311,7 +11214,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="27">
         <v>45407</v>
       </c>
@@ -11322,7 +11225,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="27">
         <v>45408</v>
       </c>
@@ -11333,7 +11236,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="27">
         <v>45409</v>
       </c>
@@ -11344,7 +11247,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="27">
         <v>45410</v>
       </c>
@@ -11355,7 +11258,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="27">
         <v>45411</v>
       </c>
@@ -11366,7 +11269,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="27">
         <v>45412</v>
       </c>
@@ -11377,7 +11280,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="27">
         <v>45413</v>
       </c>
@@ -11388,7 +11291,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="27">
         <v>45414</v>
       </c>
@@ -11399,7 +11302,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="27">
         <v>45415</v>
       </c>
@@ -11410,7 +11313,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="27">
         <v>45416</v>
       </c>
@@ -11421,7 +11324,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="27">
         <v>45417</v>
       </c>
@@ -11432,7 +11335,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="27">
         <v>45418</v>
       </c>
@@ -11443,7 +11346,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="27">
         <v>45419</v>
       </c>
@@ -11454,7 +11357,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="27">
         <v>45420</v>
       </c>
@@ -11465,7 +11368,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="27">
         <v>45421</v>
       </c>
@@ -11476,7 +11379,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="27">
         <v>45422</v>
       </c>
@@ -11487,7 +11390,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="27">
         <v>45423</v>
       </c>
@@ -11498,7 +11401,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="27">
         <v>45424</v>
       </c>
@@ -11509,7 +11412,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="27">
         <v>45425</v>
       </c>
@@ -11520,7 +11423,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="27">
         <v>45426</v>
       </c>
@@ -11531,7 +11434,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="27">
         <v>45427</v>
       </c>
@@ -11542,7 +11445,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="27">
         <v>45428</v>
       </c>
@@ -11553,7 +11456,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="27">
         <v>45429</v>
       </c>
@@ -11564,7 +11467,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="27">
         <v>45430</v>
       </c>
@@ -11575,7 +11478,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="27">
         <v>45431</v>
       </c>
@@ -11586,7 +11489,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="27">
         <v>45432</v>
       </c>
@@ -11597,7 +11500,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="27">
         <v>45433</v>
       </c>
@@ -11608,7 +11511,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="27">
         <v>45434</v>
       </c>
@@ -11619,7 +11522,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="27">
         <v>45435</v>
       </c>
@@ -11630,7 +11533,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="27">
         <v>45436</v>
       </c>
@@ -11641,7 +11544,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="27">
         <v>45437</v>
       </c>
@@ -11652,7 +11555,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="27">
         <v>45438</v>
       </c>
@@ -11663,7 +11566,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="27">
         <v>45439</v>
       </c>
@@ -11674,7 +11577,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="27">
         <v>45440</v>
       </c>
@@ -11685,7 +11588,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="27">
         <v>45441</v>
       </c>
@@ -11696,7 +11599,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="27">
         <v>45442</v>
       </c>
@@ -11707,7 +11610,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="27">
         <v>45443</v>
       </c>
@@ -11718,7 +11621,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="27">
         <v>45444</v>
       </c>
@@ -11729,7 +11632,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="27">
         <v>45445</v>
       </c>
@@ -11740,7 +11643,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="27">
         <v>45446</v>
       </c>
@@ -11751,7 +11654,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="27">
         <v>45447</v>
       </c>
@@ -11762,7 +11665,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="27">
         <v>45448</v>
       </c>
@@ -11773,7 +11676,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="27">
         <v>45449</v>
       </c>
@@ -11784,7 +11687,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="27">
         <v>45450</v>
       </c>
@@ -11795,7 +11698,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="27">
         <v>45451</v>
       </c>
@@ -11806,7 +11709,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="27">
         <v>45452</v>
       </c>
@@ -11817,7 +11720,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="27">
         <v>45453</v>
       </c>
@@ -11828,7 +11731,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="27">
         <v>45454</v>
       </c>
@@ -11839,7 +11742,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="27">
         <v>45455</v>
       </c>
@@ -11850,7 +11753,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="27">
         <v>45456</v>
       </c>
@@ -11861,7 +11764,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="27">
         <v>45457</v>
       </c>
@@ -11872,7 +11775,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="27">
         <v>45458</v>
       </c>
@@ -11883,7 +11786,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="27">
         <v>45459</v>
       </c>
@@ -11894,7 +11797,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="27">
         <v>45460</v>
       </c>
@@ -11905,7 +11808,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="27">
         <v>45461</v>
       </c>
@@ -11916,7 +11819,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="27">
         <v>45462</v>
       </c>
@@ -11927,7 +11830,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="27">
         <v>45463</v>
       </c>
@@ -11938,7 +11841,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="27">
         <v>45464</v>
       </c>
@@ -11949,7 +11852,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="27">
         <v>45465</v>
       </c>
@@ -11960,7 +11863,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="27">
         <v>45466</v>
       </c>
@@ -11971,7 +11874,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="27">
         <v>45467</v>
       </c>
@@ -11982,7 +11885,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="27">
         <v>45468</v>
       </c>
@@ -11993,7 +11896,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="27">
         <v>45469</v>
       </c>
@@ -12004,7 +11907,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="27">
         <v>45470</v>
       </c>
@@ -12015,7 +11918,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="27">
         <v>45471</v>
       </c>
@@ -12026,7 +11929,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="27">
         <v>45472</v>
       </c>
@@ -12037,7 +11940,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="27">
         <v>45473</v>
       </c>
@@ -12048,7 +11951,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="27">
         <v>45474</v>
       </c>
@@ -12059,7 +11962,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="27">
         <v>45475</v>
       </c>
@@ -12070,7 +11973,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="27">
         <v>45476</v>
       </c>
@@ -12081,7 +11984,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="27">
         <v>45477</v>
       </c>
@@ -12092,7 +11995,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="27">
         <v>45478</v>
       </c>
@@ -12103,7 +12006,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="27">
         <v>45479</v>
       </c>
@@ -12114,7 +12017,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="27">
         <v>45480</v>
       </c>
@@ -12125,7 +12028,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="27">
         <v>45481</v>
       </c>
@@ -12136,7 +12039,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A101" s="27">
         <v>45482</v>
       </c>
@@ -12147,7 +12050,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A102" s="27">
         <v>45483</v>
       </c>
@@ -12158,7 +12061,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A103" s="27">
         <v>45484</v>
       </c>
@@ -12169,7 +12072,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A104" s="27">
         <v>45485</v>
       </c>
@@ -12180,7 +12083,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A105" s="27">
         <v>45486</v>
       </c>
@@ -12191,7 +12094,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A106" s="27">
         <v>45487</v>
       </c>
@@ -12202,7 +12105,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A107" s="27">
         <v>45488</v>
       </c>
@@ -12213,7 +12116,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A108" s="27">
         <v>45489</v>
       </c>
@@ -12224,7 +12127,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A109" s="27">
         <v>45490</v>
       </c>
@@ -12235,7 +12138,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A110" s="27">
         <v>45491</v>
       </c>
@@ -12246,7 +12149,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A111" s="27">
         <v>45492</v>
       </c>
@@ -12257,7 +12160,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A112" s="27">
         <v>45493</v>
       </c>
@@ -12268,7 +12171,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A113" s="27">
         <v>45494</v>
       </c>
@@ -12279,7 +12182,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A114" s="27">
         <v>45495</v>
       </c>
@@ -12290,7 +12193,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A115" s="27">
         <v>45496</v>
       </c>
@@ -12301,7 +12204,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A116" s="27">
         <v>45497</v>
       </c>
@@ -12312,7 +12215,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A117" s="27">
         <v>45498</v>
       </c>
@@ -12323,7 +12226,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A118" s="27">
         <v>45499</v>
       </c>
@@ -12334,7 +12237,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A119" s="27">
         <v>45500</v>
       </c>
@@ -12345,7 +12248,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A120" s="27">
         <v>45501</v>
       </c>
@@ -12356,7 +12259,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A121" s="27">
         <v>45502</v>
       </c>
@@ -12367,7 +12270,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A122" s="27">
         <v>45503</v>
       </c>
@@ -12378,7 +12281,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A123" s="27">
         <v>45504</v>
       </c>
@@ -12389,7 +12292,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A124" s="27">
         <v>45505</v>
       </c>
@@ -12400,7 +12303,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A125" s="27">
         <v>45506</v>
       </c>
@@ -12411,7 +12314,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A126" s="27">
         <v>45507</v>
       </c>
@@ -12422,7 +12325,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A127" s="27">
         <v>45508</v>
       </c>
@@ -12433,7 +12336,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A128" s="27">
         <v>45509</v>
       </c>
@@ -12444,7 +12347,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A129" s="27">
         <v>45510</v>
       </c>
@@ -12455,7 +12358,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A130" s="27">
         <v>45511</v>
       </c>
@@ -12466,7 +12369,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A131" s="27">
         <v>45512</v>
       </c>
@@ -12477,7 +12380,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A132" s="27">
         <v>45513</v>
       </c>
@@ -12488,7 +12391,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A133" s="27">
         <v>45514</v>
       </c>
@@ -12499,7 +12402,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A134" s="27">
         <v>45515</v>
       </c>
@@ -12510,7 +12413,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A135" s="27">
         <v>45516</v>
       </c>
@@ -12521,7 +12424,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A136" s="27">
         <v>45517</v>
       </c>
@@ -12532,7 +12435,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A137" s="27">
         <v>45518</v>
       </c>
@@ -12543,7 +12446,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A138" s="27">
         <v>45519</v>
       </c>
@@ -12554,7 +12457,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A139" s="27">
         <v>45520</v>
       </c>
@@ -12565,7 +12468,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A140" s="27">
         <v>45521</v>
       </c>
@@ -12576,7 +12479,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A141" s="27">
         <v>45522</v>
       </c>
@@ -12587,7 +12490,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A142" s="27">
         <v>45523</v>
       </c>
@@ -12598,7 +12501,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A143" s="27">
         <v>45524</v>
       </c>
@@ -12609,7 +12512,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A144" s="27">
         <v>45525</v>
       </c>
@@ -12620,7 +12523,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A145" s="27">
         <v>45526</v>
       </c>
@@ -12631,7 +12534,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A146" s="27">
         <v>45527</v>
       </c>
@@ -12642,7 +12545,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A147" s="27">
         <v>45528</v>
       </c>
@@ -12653,7 +12556,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A148" s="27">
         <v>45529</v>
       </c>
@@ -12664,7 +12567,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A149" s="27">
         <v>45530</v>
       </c>
@@ -12675,7 +12578,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A150" s="27">
         <v>45531</v>
       </c>
@@ -12686,7 +12589,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A151" s="27">
         <v>45532</v>
       </c>
@@ -12697,7 +12600,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A152" s="27">
         <v>45533</v>
       </c>
@@ -12708,7 +12611,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A153" s="27">
         <v>45534</v>
       </c>
@@ -12719,7 +12622,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A154" s="27">
         <v>45535</v>
       </c>
@@ -12730,7 +12633,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A155" s="27">
         <v>45536</v>
       </c>
@@ -12741,7 +12644,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A156" s="27">
         <v>45537</v>
       </c>
@@ -12752,7 +12655,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A157" s="27">
         <v>45538</v>
       </c>
@@ -12763,7 +12666,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A158" s="27">
         <v>45539</v>
       </c>
@@ -12774,7 +12677,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A159" s="27">
         <v>45540</v>
       </c>
@@ -12785,7 +12688,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A160" s="27">
         <v>45541</v>
       </c>
@@ -12796,7 +12699,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A161" s="27">
         <v>45542</v>
       </c>
@@ -12807,7 +12710,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A162" s="27">
         <v>45543</v>
       </c>
@@ -12818,7 +12721,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A163" s="27">
         <v>45544</v>
       </c>
@@ -12829,7 +12732,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A164" s="27">
         <v>45545</v>
       </c>
@@ -12840,7 +12743,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A165" s="27">
         <v>45546</v>
       </c>
@@ -12851,7 +12754,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A166" s="27">
         <v>45547</v>
       </c>
@@ -12862,7 +12765,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A167" s="27">
         <v>45548</v>
       </c>
@@ -12873,7 +12776,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A168" s="27">
         <v>45549</v>
       </c>
@@ -12884,7 +12787,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A169" s="27">
         <v>45550</v>
       </c>
@@ -12895,7 +12798,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A170" s="27">
         <v>45551</v>
       </c>
@@ -12906,7 +12809,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A171" s="27">
         <v>45552</v>
       </c>
@@ -12917,7 +12820,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A172" s="27">
         <v>45553</v>
       </c>
@@ -12928,7 +12831,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A173" s="27">
         <v>45554</v>
       </c>
@@ -12939,7 +12842,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A174" s="27">
         <v>45555</v>
       </c>
@@ -12950,7 +12853,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A175" s="27">
         <v>45556</v>
       </c>
@@ -12961,7 +12864,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A176" s="27">
         <v>45557</v>
       </c>
@@ -12972,7 +12875,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A177" s="27">
         <v>45558</v>
       </c>
@@ -12983,7 +12886,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A178" s="27">
         <v>45559</v>
       </c>
@@ -12994,7 +12897,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A179" s="27">
         <v>45560</v>
       </c>
@@ -13005,7 +12908,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A180" s="27">
         <v>45561</v>
       </c>
@@ -13016,7 +12919,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A181" s="27">
         <v>45562</v>
       </c>
@@ -13027,7 +12930,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A182" s="27">
         <v>45563</v>
       </c>
@@ -13038,7 +12941,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A183" s="27">
         <v>45564</v>
       </c>
@@ -13049,7 +12952,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A184" s="27">
         <v>45565</v>
       </c>
@@ -13060,7 +12963,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A185" s="27">
         <v>45566</v>
       </c>
@@ -13071,7 +12974,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A186" s="27">
         <v>45567</v>
       </c>
@@ -13082,7 +12985,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A187" s="27">
         <v>45568</v>
       </c>
@@ -13093,7 +12996,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A188" s="27">
         <v>45569</v>
       </c>
@@ -13104,7 +13007,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A189" s="27">
         <v>45570</v>
       </c>
@@ -13115,7 +13018,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A190" s="27">
         <v>45571</v>
       </c>
@@ -13126,7 +13029,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A191" s="27">
         <v>45572</v>
       </c>
@@ -13137,7 +13040,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A192" s="27">
         <v>45573</v>
       </c>
@@ -13148,7 +13051,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A193" s="27">
         <v>45574</v>
       </c>
@@ -13159,7 +13062,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A194" s="27">
         <v>45575</v>
       </c>
@@ -13170,7 +13073,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A195" s="27">
         <v>45576</v>
       </c>
@@ -13181,7 +13084,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A196" s="27">
         <v>45577</v>
       </c>
@@ -13192,7 +13095,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A197" s="27">
         <v>45578</v>
       </c>
@@ -13203,7 +13106,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A198" s="27">
         <v>45579</v>
       </c>
@@ -13214,7 +13117,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A199" s="27">
         <v>45580</v>
       </c>
@@ -13225,7 +13128,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A200" s="27">
         <v>45581</v>
       </c>
@@ -13236,7 +13139,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A201" s="27">
         <v>45582</v>
       </c>
@@ -13247,7 +13150,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A202" s="27">
         <v>45583</v>
       </c>
@@ -13258,7 +13161,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A203" s="27">
         <v>45584</v>
       </c>
@@ -13269,7 +13172,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A204" s="27">
         <v>45585</v>
       </c>
@@ -13280,7 +13183,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A205" s="27">
         <v>45586</v>
       </c>
@@ -13291,7 +13194,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A206" s="27">
         <v>45587</v>
       </c>
@@ -13302,7 +13205,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A207" s="27">
         <v>45588</v>
       </c>
@@ -13313,7 +13216,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A208" s="27">
         <v>45589</v>
       </c>
@@ -13324,7 +13227,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A209" s="27">
         <v>45590</v>
       </c>
@@ -13335,7 +13238,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A210" s="27">
         <v>45591</v>
       </c>
@@ -13346,7 +13249,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A211" s="27">
         <v>45592</v>
       </c>
@@ -13357,7 +13260,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A212" s="27">
         <v>45593</v>
       </c>
@@ -13368,7 +13271,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A213" s="27">
         <v>45594</v>
       </c>
@@ -13379,7 +13282,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A214" s="27">
         <v>45595</v>
       </c>
@@ -13390,7 +13293,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A215" s="27">
         <v>45596</v>
       </c>
@@ -13401,7 +13304,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A216" s="27">
         <v>45597</v>
       </c>
@@ -13412,7 +13315,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A217" s="27">
         <v>45598</v>
       </c>
@@ -13423,7 +13326,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A218" s="27">
         <v>45599</v>
       </c>
@@ -13434,7 +13337,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A219" s="27">
         <v>45600</v>
       </c>
@@ -13445,7 +13348,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A220" s="27">
         <v>45601</v>
       </c>
@@ -13456,7 +13359,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A221" s="27">
         <v>45602</v>
       </c>
@@ -13467,7 +13370,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A222" s="27">
         <v>45603</v>
       </c>
@@ -13478,7 +13381,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A223" s="27">
         <v>45604</v>
       </c>
@@ -13489,7 +13392,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A224" s="27">
         <v>45605</v>
       </c>
@@ -13500,7 +13403,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A225" s="27">
         <v>45606</v>
       </c>
@@ -13511,7 +13414,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A226" s="27">
         <v>45607</v>
       </c>
@@ -13522,7 +13425,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A227" s="27">
         <v>45608</v>
       </c>
@@ -13533,7 +13436,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A228" s="27">
         <v>45609</v>
       </c>
@@ -13544,7 +13447,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A229" s="27">
         <v>45610</v>
       </c>
@@ -13555,7 +13458,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A230" s="27">
         <v>45611</v>
       </c>
@@ -13566,7 +13469,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A231" s="27">
         <v>45612</v>
       </c>
@@ -13577,7 +13480,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A232" s="27">
         <v>45613</v>
       </c>
@@ -13588,7 +13491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A233" s="27">
         <v>45614</v>
       </c>
@@ -13599,7 +13502,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A234" s="27">
         <v>45615</v>
       </c>
@@ -13610,7 +13513,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A235" s="27">
         <v>45616</v>
       </c>
@@ -13621,7 +13524,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A236" s="27">
         <v>45617</v>
       </c>
@@ -13632,7 +13535,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A237" s="27">
         <v>45618</v>
       </c>
@@ -13643,7 +13546,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A238" s="27">
         <v>45619</v>
       </c>
@@ -13654,7 +13557,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A239" s="27">
         <v>45620</v>
       </c>
@@ -13665,7 +13568,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A240" s="27">
         <v>45621</v>
       </c>
@@ -13676,7 +13579,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A241" s="27">
         <v>45622</v>
       </c>
@@ -13687,7 +13590,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A242" s="27">
         <v>45623</v>
       </c>
@@ -13698,7 +13601,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A243" s="27">
         <v>45624</v>
       </c>
@@ -13709,7 +13612,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A244" s="27">
         <v>45625</v>
       </c>
@@ -13720,7 +13623,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A245" s="27">
         <v>45626</v>
       </c>
@@ -13731,7 +13634,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A246" s="27">
         <v>45627</v>
       </c>
@@ -13742,7 +13645,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A247" s="27">
         <v>45628</v>
       </c>
@@ -13753,7 +13656,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A248" s="27">
         <v>45629</v>
       </c>
@@ -13764,7 +13667,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A249" s="27">
         <v>45630</v>
       </c>
@@ -13775,7 +13678,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A250" s="27">
         <v>45631</v>
       </c>
@@ -13786,7 +13689,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A251" s="27">
         <v>45632</v>
       </c>
@@ -13797,7 +13700,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A252" s="27">
         <v>45633</v>
       </c>
@@ -13808,7 +13711,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A253" s="27">
         <v>45634</v>
       </c>
@@ -13819,7 +13722,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A254" s="27">
         <v>45635</v>
       </c>
@@ -13830,7 +13733,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A255" s="27">
         <v>45636</v>
       </c>
@@ -13841,7 +13744,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A256" s="27">
         <v>45637</v>
       </c>
@@ -13852,7 +13755,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A257" s="27">
         <v>45638</v>
       </c>
@@ -13863,7 +13766,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A258" s="27">
         <v>45639</v>
       </c>
@@ -13874,7 +13777,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A259" s="27">
         <v>45640</v>
       </c>
@@ -13885,7 +13788,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A260" s="27">
         <v>45641</v>
       </c>
@@ -13896,7 +13799,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A261" s="27">
         <v>45642</v>
       </c>
@@ -13907,7 +13810,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A262" s="27">
         <v>45643</v>
       </c>
@@ -13918,7 +13821,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A263" s="27">
         <v>45644</v>
       </c>
@@ -13929,7 +13832,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A264" s="27">
         <v>45645</v>
       </c>
@@ -13940,7 +13843,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A265" s="27">
         <v>45646</v>
       </c>
@@ -13951,7 +13854,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A266" s="27">
         <v>45647</v>
       </c>
@@ -13962,7 +13865,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A267" s="27">
         <v>45648</v>
       </c>
@@ -13973,7 +13876,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A268" s="27">
         <v>45649</v>
       </c>
@@ -13984,7 +13887,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A269" s="27">
         <v>45650</v>
       </c>
@@ -13995,7 +13898,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A270" s="27">
         <v>45651</v>
       </c>
@@ -14006,7 +13909,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A271" s="27">
         <v>45652</v>
       </c>
@@ -14017,7 +13920,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A272" s="27">
         <v>45653</v>
       </c>
@@ -14028,7 +13931,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A273" s="27">
         <v>45654</v>
       </c>
@@ -14039,7 +13942,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A274" s="27">
         <v>45655</v>
       </c>
@@ -14050,7 +13953,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A275" s="27">
         <v>45656</v>
       </c>
@@ -14061,7 +13964,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A276" s="27">
         <v>45657</v>
       </c>
@@ -14072,7 +13975,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A277" s="27">
         <v>45658</v>
       </c>
@@ -14083,7 +13986,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A278" s="27">
         <v>45659</v>
       </c>
@@ -14094,7 +13997,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A279" s="27">
         <v>45660</v>
       </c>
@@ -14105,7 +14008,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A280" s="27">
         <v>45661</v>
       </c>
@@ -14116,7 +14019,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A281" s="27">
         <v>45662</v>
       </c>
@@ -14127,7 +14030,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A282" s="27">
         <v>45663</v>
       </c>
@@ -14138,7 +14041,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A283" s="27">
         <v>45664</v>
       </c>
@@ -14149,7 +14052,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A284" s="27">
         <v>45665</v>
       </c>
@@ -14160,7 +14063,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A285" s="27">
         <v>45666</v>
       </c>
@@ -14171,7 +14074,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A286" s="27">
         <v>45667</v>
       </c>
@@ -14182,7 +14085,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A287" s="27">
         <v>45668</v>
       </c>
@@ -14193,7 +14096,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A288" s="27">
         <v>45669</v>
       </c>
@@ -14204,7 +14107,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A289" s="27">
         <v>45670</v>
       </c>
@@ -14215,7 +14118,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A290" s="27">
         <v>45671</v>
       </c>
@@ -14226,7 +14129,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A291" s="27">
         <v>45672</v>
       </c>
@@ -14237,7 +14140,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A292" s="27">
         <v>45673</v>
       </c>
@@ -14248,7 +14151,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A293" s="27">
         <v>45674</v>
       </c>
@@ -14259,7 +14162,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A294" s="27">
         <v>45675</v>
       </c>
@@ -14270,7 +14173,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A295" s="27">
         <v>45676</v>
       </c>
@@ -14281,7 +14184,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A296" s="27">
         <v>45677</v>
       </c>
@@ -14292,7 +14195,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A297" s="27">
         <v>45678</v>
       </c>
@@ -14303,7 +14206,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A298" s="27">
         <v>45679</v>
       </c>
@@ -14314,7 +14217,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A299" s="27">
         <v>45680</v>
       </c>
@@ -14325,7 +14228,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A300" s="27">
         <v>45681</v>
       </c>
@@ -14336,7 +14239,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A301" s="27">
         <v>45682</v>
       </c>
@@ -14347,7 +14250,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A302" s="27">
         <v>45683</v>
       </c>
@@ -14358,7 +14261,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A303" s="27">
         <v>45684</v>
       </c>
@@ -14369,7 +14272,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A304" s="27">
         <v>45685</v>
       </c>
@@ -14380,7 +14283,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A305" s="27">
         <v>45686</v>
       </c>
@@ -14391,7 +14294,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A306" s="27">
         <v>45687</v>
       </c>
@@ -14402,7 +14305,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A307" s="27">
         <v>45688</v>
       </c>
@@ -14413,7 +14316,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A308" s="27">
         <v>45689</v>
       </c>
@@ -14424,7 +14327,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A309" s="27">
         <v>45690</v>
       </c>
@@ -14435,7 +14338,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A310" s="27">
         <v>45691</v>
       </c>
@@ -14446,7 +14349,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A311" s="27">
         <v>45692</v>
       </c>
@@ -14457,7 +14360,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A312" s="27">
         <v>45693</v>
       </c>
@@ -14468,7 +14371,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A313" s="27">
         <v>45694</v>
       </c>
@@ -14479,7 +14382,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A314" s="27">
         <v>45695</v>
       </c>
@@ -14490,7 +14393,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A315" s="27">
         <v>45696</v>
       </c>
@@ -14501,7 +14404,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A316" s="27">
         <v>45697</v>
       </c>
@@ -14512,7 +14415,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A317" s="27">
         <v>45698</v>
       </c>
@@ -14523,7 +14426,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A318" s="27">
         <v>45699</v>
       </c>
@@ -14534,7 +14437,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A319" s="27">
         <v>45700</v>
       </c>
@@ -14545,7 +14448,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A320" s="27">
         <v>45701</v>
       </c>
@@ -14556,7 +14459,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A321" s="27">
         <v>45702</v>
       </c>
@@ -14567,7 +14470,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A322" s="27">
         <v>45703</v>
       </c>
@@ -14578,7 +14481,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A323" s="27">
         <v>45704</v>
       </c>
@@ -14589,7 +14492,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A324" s="27">
         <v>45705</v>
       </c>
@@ -14600,7 +14503,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A325" s="27">
         <v>45706</v>
       </c>
@@ -14611,7 +14514,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A326" s="27">
         <v>45707</v>
       </c>
@@ -14622,7 +14525,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A327" s="27">
         <v>45708</v>
       </c>
@@ -14633,7 +14536,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A328" s="27">
         <v>45709</v>
       </c>
@@ -14644,7 +14547,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A329" s="27">
         <v>45710</v>
       </c>
@@ -14655,7 +14558,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A330" s="27">
         <v>45711</v>
       </c>
@@ -14666,7 +14569,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A331" s="27">
         <v>45712</v>
       </c>
@@ -14677,7 +14580,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A332" s="27">
         <v>45713</v>
       </c>
@@ -14688,7 +14591,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A333" s="27">
         <v>45714</v>
       </c>
@@ -14699,7 +14602,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A334" s="27">
         <v>45715</v>
       </c>
@@ -14710,7 +14613,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A335" s="27">
         <v>45716</v>
       </c>
@@ -14721,7 +14624,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A336" s="27">
         <v>45717</v>
       </c>
@@ -14732,7 +14635,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A337" s="27">
         <v>45718</v>
       </c>
@@ -14743,7 +14646,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A338" s="27">
         <v>45719</v>
       </c>
@@ -14754,7 +14657,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A339" s="27">
         <v>45720</v>
       </c>
@@ -14765,7 +14668,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A340" s="27">
         <v>45721</v>
       </c>
@@ -14776,7 +14679,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A341" s="27">
         <v>45722</v>
       </c>
@@ -14787,7 +14690,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A342" s="27">
         <v>45723</v>
       </c>
@@ -14798,7 +14701,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A343" s="27">
         <v>45724</v>
       </c>
@@ -14809,7 +14712,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A344" s="27">
         <v>45725</v>
       </c>
@@ -14820,7 +14723,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A345" s="27">
         <v>45726</v>
       </c>
@@ -14831,7 +14734,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A346" s="27">
         <v>45727</v>
       </c>
@@ -14842,7 +14745,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A347" s="27">
         <v>45728</v>
       </c>
@@ -14853,7 +14756,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A348" s="27">
         <v>45729</v>
       </c>
@@ -14864,7 +14767,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A349" s="27">
         <v>45730</v>
       </c>
@@ -14875,7 +14778,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A350" s="27">
         <v>45731</v>
       </c>
@@ -14886,7 +14789,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A351" s="27">
         <v>45732</v>
       </c>
@@ -14897,7 +14800,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A352" s="27">
         <v>45733</v>
       </c>
@@ -14908,7 +14811,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A353" s="27">
         <v>45734</v>
       </c>
@@ -14919,7 +14822,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A354" s="27">
         <v>45735</v>
       </c>
@@ -14930,7 +14833,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A355" s="27">
         <v>45736</v>
       </c>
@@ -14941,7 +14844,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A356" s="27">
         <v>45737</v>
       </c>
@@ -14952,7 +14855,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A357" s="27">
         <v>45738</v>
       </c>
@@ -14963,7 +14866,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A358" s="27">
         <v>45739</v>
       </c>
@@ -14974,7 +14877,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A359" s="27">
         <v>45740</v>
       </c>
@@ -14985,7 +14888,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A360" s="27">
         <v>45741</v>
       </c>
@@ -14996,7 +14899,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A361" s="27">
         <v>45742</v>
       </c>
@@ -15007,7 +14910,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A362" s="27">
         <v>45743</v>
       </c>
@@ -15018,7 +14921,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A363" s="27">
         <v>45744</v>
       </c>
@@ -15029,7 +14932,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A364" s="27">
         <v>45745</v>
       </c>
@@ -15040,7 +14943,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A365" s="27">
         <v>45746</v>
       </c>
@@ -15051,7 +14954,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A366" s="27">
         <v>45747</v>
       </c>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://toyotajp-my.sharepoint.com/personal/3169885_tmc_twfr_toyota_co_jp/Documents/01_PA/04_人材育成/01_研修/01_デジタル全員研修/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Tmc03fsd1\PA\10_技能育成\02_ショップ別\01_デジタル\01_研修\01_デジタル全員研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F6EA1F00-7757-4960-BE67-4F93149073FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AC83E96-917C-408D-975A-86385295125D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CC2B6-FADD-49AA-8969-8EE7B639B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="912" yWindow="13308" windowWidth="21600" windowHeight="11232" activeTab="1" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
+    <workbookView xWindow="1380" yWindow="510" windowWidth="27000" windowHeight="14040" xr2:uid="{F6454EEB-C728-456F-9F74-DCB3B1160FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本" sheetId="3" r:id="rId1"/>
@@ -2032,10 +2032,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2049,15 +2058,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2933,9 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7795CA75-2E57-4007-A1E6-AF0752BF2C5D}">
   <dimension ref="B2:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -2984,16 +2982,16 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
@@ -3011,10 +3009,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -8764,10 +8759,10 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>216</v>
       </c>
       <c r="C5" s="15">
@@ -8896,8 +8891,8 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.4">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="17" t="s">
         <v>217</v>
       </c>
@@ -9599,268 +9594,268 @@
       </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="36">
         <v>1</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33">
+      <c r="D5" s="37"/>
+      <c r="E5" s="36">
         <v>2</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="33">
+      <c r="F5" s="37"/>
+      <c r="G5" s="36">
         <v>3</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="33">
+      <c r="H5" s="37"/>
+      <c r="I5" s="36">
         <v>4</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35">
+      <c r="J5" s="37"/>
+      <c r="K5" s="38">
         <v>5</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="35">
+      <c r="L5" s="39"/>
+      <c r="M5" s="38">
         <v>6</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="33">
+      <c r="N5" s="39"/>
+      <c r="O5" s="36">
         <v>7</v>
       </c>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="33">
+      <c r="P5" s="37"/>
+      <c r="Q5" s="36">
         <v>8</v>
       </c>
-      <c r="R5" s="34"/>
-      <c r="S5" s="33">
+      <c r="R5" s="37"/>
+      <c r="S5" s="36">
         <v>9</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="33">
+      <c r="T5" s="37"/>
+      <c r="U5" s="36">
         <v>10</v>
       </c>
-      <c r="V5" s="34"/>
-      <c r="W5" s="33">
+      <c r="V5" s="37"/>
+      <c r="W5" s="36">
         <v>11</v>
       </c>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="35">
+      <c r="X5" s="37"/>
+      <c r="Y5" s="38">
         <v>12</v>
       </c>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="35">
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="38">
         <v>13</v>
       </c>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="33">
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="36">
         <v>14</v>
       </c>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="33">
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="36">
         <v>15</v>
       </c>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="33">
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="36">
         <v>16</v>
       </c>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="33">
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="36">
         <v>17</v>
       </c>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="33">
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="36">
         <v>18</v>
       </c>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="35">
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="38">
         <v>19</v>
       </c>
-      <c r="AN5" s="36"/>
-      <c r="AO5" s="35">
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="38">
         <v>20</v>
       </c>
-      <c r="AP5" s="36"/>
-      <c r="AQ5" s="33">
+      <c r="AP5" s="39"/>
+      <c r="AQ5" s="36">
         <v>21</v>
       </c>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="33">
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="36">
         <v>22</v>
       </c>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="33">
+      <c r="AT5" s="37"/>
+      <c r="AU5" s="36">
         <v>23</v>
       </c>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="33">
+      <c r="AV5" s="37"/>
+      <c r="AW5" s="36">
         <v>24</v>
       </c>
-      <c r="AX5" s="34"/>
-      <c r="AY5" s="33">
+      <c r="AX5" s="37"/>
+      <c r="AY5" s="36">
         <v>25</v>
       </c>
-      <c r="AZ5" s="34"/>
-      <c r="BA5" s="35">
+      <c r="AZ5" s="37"/>
+      <c r="BA5" s="38">
         <v>26</v>
       </c>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="35">
+      <c r="BB5" s="39"/>
+      <c r="BC5" s="38">
         <v>27</v>
       </c>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="33">
+      <c r="BD5" s="39"/>
+      <c r="BE5" s="36">
         <v>28</v>
       </c>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="33">
+      <c r="BF5" s="37"/>
+      <c r="BG5" s="36">
         <v>29</v>
       </c>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="33">
+      <c r="BH5" s="37"/>
+      <c r="BI5" s="36">
         <v>30</v>
       </c>
-      <c r="BJ5" s="34"/>
-      <c r="BK5" s="33">
+      <c r="BJ5" s="37"/>
+      <c r="BK5" s="36">
         <v>31</v>
       </c>
-      <c r="BL5" s="34"/>
+      <c r="BL5" s="37"/>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="33" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33" t="s">
+      <c r="D6" s="37"/>
+      <c r="E6" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="33" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="37"/>
+      <c r="K6" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="35" t="s">
+      <c r="L6" s="39"/>
+      <c r="M6" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="33" t="s">
+      <c r="N6" s="39"/>
+      <c r="O6" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="33" t="s">
+      <c r="P6" s="37"/>
+      <c r="Q6" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="R6" s="34"/>
-      <c r="S6" s="33" t="s">
+      <c r="R6" s="37"/>
+      <c r="S6" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="33" t="s">
+      <c r="T6" s="37"/>
+      <c r="U6" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="V6" s="34"/>
-      <c r="W6" s="33" t="s">
+      <c r="V6" s="37"/>
+      <c r="W6" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="35" t="s">
+      <c r="X6" s="37"/>
+      <c r="Y6" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="35" t="s">
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="33" t="s">
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="33" t="s">
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="33" t="s">
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="33" t="s">
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="AJ6" s="34"/>
-      <c r="AK6" s="33" t="s">
+      <c r="AJ6" s="37"/>
+      <c r="AK6" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="AL6" s="34"/>
-      <c r="AM6" s="35" t="s">
+      <c r="AL6" s="37"/>
+      <c r="AM6" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="35" t="s">
+      <c r="AN6" s="39"/>
+      <c r="AO6" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="33" t="s">
+      <c r="AP6" s="39"/>
+      <c r="AQ6" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="AR6" s="34"/>
-      <c r="AS6" s="33" t="s">
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="AT6" s="34"/>
-      <c r="AU6" s="33" t="s">
+      <c r="AT6" s="37"/>
+      <c r="AU6" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="AV6" s="34"/>
-      <c r="AW6" s="33" t="s">
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="AX6" s="34"/>
-      <c r="AY6" s="33" t="s">
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="36" t="s">
         <v>264</v>
       </c>
-      <c r="AZ6" s="34"/>
-      <c r="BA6" s="35" t="s">
+      <c r="AZ6" s="37"/>
+      <c r="BA6" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="BB6" s="36"/>
-      <c r="BC6" s="35" t="s">
+      <c r="BB6" s="39"/>
+      <c r="BC6" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="BD6" s="36"/>
-      <c r="BE6" s="33" t="s">
+      <c r="BD6" s="39"/>
+      <c r="BE6" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="BF6" s="34"/>
-      <c r="BG6" s="33" t="s">
+      <c r="BF6" s="37"/>
+      <c r="BG6" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="BH6" s="34"/>
-      <c r="BI6" s="33" t="s">
+      <c r="BH6" s="37"/>
+      <c r="BI6" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="BJ6" s="34"/>
-      <c r="BK6" s="33" t="s">
+      <c r="BJ6" s="37"/>
+      <c r="BK6" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="BL6" s="34"/>
+      <c r="BL6" s="37"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.4">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="17" t="s">
         <v>257</v>
       </c>
@@ -10850,6 +10845,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="AU5:AV5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AS5:AT5"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="AY6:AZ6"/>
+    <mergeCell ref="BA6:BB6"/>
+    <mergeCell ref="BC6:BD6"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BA5:BB5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="AS6:AT6"/>
@@ -10866,54 +10909,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BA5:BB5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="AY6:AZ6"/>
-    <mergeCell ref="BA6:BB6"/>
-    <mergeCell ref="BC6:BD6"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="AU5:AV5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AS5:AT5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
